--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>대답</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>오답가산점</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +466,14 @@
           <t>호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음」을 비유(比喩ㆍ譬喩)하는 말</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +486,14 @@
           <t>장두노미, 「머리는 감추었는데 꼬리는 드러나 있다」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미(意味) 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +506,14 @@
           <t>도행역시, 「차례(次例)를 거꾸로 시행(施行)한다」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +526,14 @@
           <t>파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +546,14 @@
           <t>속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -516,6 +566,14 @@
           <t>이합집산, 헤어졌다가 모였다가 하는 일</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +586,14 @@
           <t>격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +606,14 @@
           <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +626,14 @@
           <t>화사첨족, 「뱀을 그리고 발을 더한다」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,6 +646,14 @@
           <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름 </t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -577,6 +667,14 @@
 남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -589,6 +687,14 @@
           <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함 </t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -601,6 +707,14 @@
           <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -613,6 +727,14 @@
           <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣) 또는 그러한 재기(才氣)를 가진 사람</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -622,7 +744,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>붕우유신, 오륜(五倫)의 하나 친구(親舊) 사이의 도리(道理)는 믿음에 있음</t>
+          <t>붕우유신, 오륜(五倫)의 하나 친구(親舊) 사</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -637,6 +767,14 @@
           <t>장유유서, 오륜(五倫)의 하나 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -649,6 +787,14 @@
           <t>군신유의, 오륜(五倫)의 하나 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -661,6 +807,14 @@
           <t>부부유별, 오륜(五倫)의 하나 「남편(男便)과 아내는 분별(分別)이 있어야 한다」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -673,6 +827,14 @@
           <t>부자유친, 오륜(五倫)의 하나 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -685,6 +847,14 @@
           <t>부귀공명</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -697,6 +867,14 @@
           <t>전력투구</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -709,6 +887,14 @@
           <t>토사구팽</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -721,6 +907,14 @@
           <t>권토중래</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -733,6 +927,14 @@
           <t>수불석권</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -745,6 +947,14 @@
           <t>아전인수</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -757,6 +967,14 @@
           <t>대증요법</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -769,6 +987,14 @@
           <t>화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -781,6 +1007,14 @@
           <t>일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -793,6 +1027,14 @@
           <t>곡복사신, 밥 먹고 옷 입는 일</t>
         </is>
       </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -805,6 +1047,14 @@
           <t>우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
         </is>
       </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -815,6 +1065,14 @@
       <c r="B32" t="inlineStr">
         <is>
           <t>경국지사, 나랏일을 다스릴 만한 사람</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -831,6 +1089,14 @@
 2) 아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -840,7 +1106,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+          <t>맥수지탄, 「나무가 고요하고자 하나</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -853,6 +1127,14 @@
       <c r="B35" t="inlineStr">
         <is>
           <t>풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -869,6 +1151,14 @@
 2) 방침(方針)이 많아 할 바를 모르게 됨</t>
         </is>
       </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -879,6 +1169,14 @@
       <c r="B37" t="inlineStr">
         <is>
           <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -896,6 +1194,14 @@
 3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
         </is>
       </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -908,6 +1214,14 @@
           <t>절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
         </is>
       </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -920,6 +1234,14 @@
           <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
         </is>
       </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -932,6 +1254,14 @@
           <t>풍목지비, (→風樹之歎(풍수지탄))</t>
         </is>
       </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -944,6 +1274,14 @@
           <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
         </is>
       </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -956,6 +1294,14 @@
           <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
         </is>
       </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -968,6 +1314,14 @@
           <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
         </is>
       </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -981,6 +1335,14 @@
 2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
         </is>
       </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -993,6 +1355,14 @@
           <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
+      <c r="C46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1005,6 +1375,14 @@
           <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1015,6 +1393,14 @@
       <c r="B48" t="inlineStr">
         <is>
           <t>방휼지쟁, 「도요새가 조개와 다투다가 다 같이 어부(漁夫)에게 잡히고 말았다」는 뜻으로, 제3자(第三者)만 이(利)롭게 하는 다툼을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1032,6 +1418,14 @@
 3) 겉과 속이 서로 다름</t>
         </is>
       </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1044,6 +1438,14 @@
           <t>면리장침, 「솜 속에 바늘을 감추어 꽂는다」는 뜻으로, 겉으로는 부드러운 듯하나 속으로는 아주 흉악(凶惡)함을 이름</t>
         </is>
       </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1054,6 +1456,14 @@
       <c r="B51" t="inlineStr">
         <is>
           <t>후생가외, 「젊은 후학(後學)들을 두려워할 만하다」는 뜻으로, 후진(後進)들이 선배(先輩)들보다 젊고 기력(氣力)이 좋아, 학문(學問)을 닦음에 따라 큰 인물(人物)이 될 수 있으므로 가히 두렵다는 말</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1071,6 +1481,14 @@
 3) 잘잘못을 묻지 않고 함부로 행(行)함 </t>
         </is>
       </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1086,6 +1504,14 @@
 3) 깊이 생각 않고 예사(例事)로 듣고 말함</t>
         </is>
       </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1098,6 +1524,14 @@
           <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
         </is>
       </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1110,6 +1544,14 @@
           <t>염화미소, 「꽃을 집어 들고 웃음을 띠다.」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전(傳)하는 일을 이르는 말. 불교(佛敎)에서 이심전심(以心傳心)의 뜻으로 쓰이는 말.</t>
         </is>
       </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1122,6 +1564,14 @@
           <t>고진감래, 「쓴 것이 다하면 단 것이 온다.」는 뜻으로, 고생(苦生) 끝에 낙이 온다라는 말.</t>
         </is>
       </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1134,6 +1584,14 @@
           <t>목불식정, 「고무래를 보고도 그것이 고무래 정(丁)자인 줄 모른다.」는 뜻으로, 글자를 전혀 모름. 또는 그러한 사람을 비유(比喩ㆍ譬喩)해 이르는 말. 낫 놓고 기역자도 모른다. 일자무식을 이르는 말.</t>
         </is>
       </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1146,6 +1604,14 @@
           <t>공공기업</t>
         </is>
       </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1158,6 +1624,14 @@
           <t>공도동망, 「넘어져도 같이 넘어지고 망(亡)하여도 같이 망(亡)한다.」는 뜻으로, 운명(運命)을 같이 하는 것.</t>
         </is>
       </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1170,6 +1644,14 @@
           <t>언어도단, 「말할 길이 끊어졌다.」는 뜻으로, 곧, 너무나 엄청나거나 기가 막혀서, 말로써 나타낼 수가 없음.</t>
         </is>
       </c>
+      <c r="C60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1182,6 +1664,14 @@
           <t>언중유골, 「말속에 뼈가 있다.」는 뜻으로, 예사(例事)로운 표현(表現) 속에 만만치 않은 뜻이 들어 있음.</t>
         </is>
       </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1194,6 +1684,14 @@
           <t>회자정리</t>
         </is>
       </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1206,6 +1704,14 @@
           <t>조민유화, 국민(國民)의 화합(和合)과 나아가 인류(人類)의 화합(和合)을 지향(志向)한다는 뜻을 나타냄.</t>
         </is>
       </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1218,6 +1724,14 @@
           <t>주마간산</t>
         </is>
       </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1230,6 +1744,14 @@
           <t>묵묵부답</t>
         </is>
       </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1242,6 +1764,14 @@
           <t>금석맹약, 쇠와 돌같이 굳게 맹세(盟誓)하여 맺은 약속(約束).</t>
         </is>
       </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1254,6 +1784,14 @@
           <t>국수주의, 자기(自己) 나라의 고유(固有) 전통(傳統) 문화(文化)만이 우수(優秀)하다고 믿고 다른 나라의 문물(文物)을 지나치게 배척(排斥)하는 태도(態度)나 입장(立場).</t>
         </is>
       </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1266,6 +1804,14 @@
           <t>위정척사, 조선(朝鮮) 시대(時代) 후기(後期)에, 정학(正學), 정도(正道)로서의 주자학(朱子學)을 지키고, 사학(邪學), 사도(邪道)로서의 천주교(天主敎)를 물리치려던 주장(主張).</t>
         </is>
       </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1278,6 +1824,14 @@
           <t>상분지도, 「똥도 핥을 놈」이라는 뜻으로, 남에게 아첨(阿諂)하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말.</t>
         </is>
       </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1290,6 +1844,14 @@
           <t>귤화위지, 「강남(江南)의 귤을 강북(江北)에 심으면 탱자가 된다.」는 뜻으로, 사람도 환경(環境)에 따라 기질(氣質)이 변한다는 말.</t>
         </is>
       </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1302,6 +1864,14 @@
           <t>금슬상화, 「거문고와 비파(琵琶) 소리가 조화(調和)를 이룬다.」는 뜻으로, 부부(夫婦) 사이가 다정(多情)하고 화목(和睦)함을 이르는 말.</t>
         </is>
       </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1314,6 +1884,14 @@
           <t>여필종부, 아내는 반드시 남편(男便)의 뜻을 좇아야 한다는 말.</t>
         </is>
       </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1326,6 +1904,14 @@
           <t>담소자약, 「태연(泰然)하게 담소(談笑)를 즐긴다.」는 뜻으로, 위험(危險)이나 곤란(困難)에 직면(直面)해 걱정과 근심이 있을 때라도 변(變)함없이 평상시(平常時)와 같은 태도(態度)를 가짐.</t>
         </is>
       </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1338,6 +1924,14 @@
           <t>남부여대, 「남자(男子)는 짐을 따위에 지고, 여자(女子)는 짐을 머리에 인다.」는 뜻으로, 가난한 사람이나 재난(災難)을 당(當)한 사람들이 살 곳을 찾아 이리저리 떠돌아다니는 것을 이르는 말.</t>
         </is>
       </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1350,6 +1944,14 @@
           <t>무릉도원, 이 세상(世上)을 떠난 별천지(別天地)를 이르는 말.</t>
         </is>
       </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1362,6 +1964,14 @@
           <t>안분지족, 자기(自己) 분수(分數)에 만족(滿足)하여 다른 데 마음을 두지 아니함.</t>
         </is>
       </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1374,6 +1984,14 @@
           <t>단표누항, 「도시락과 표주박과 누추(陋醜)한 거리」라는 뜻으로, 소박(素朴)한 시골 생활(生活)을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
         </is>
       </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1386,6 +2004,14 @@
           <t>풍월주인, 맑은 바람과 밝은 달 등(等)의 자연(自然)을 즐기는 사람을 이르는 말.</t>
         </is>
       </c>
+      <c r="C78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1398,6 +2024,14 @@
           <t>고혈단신, 혈육(血肉)이 없는 외로운 신세(身世).</t>
         </is>
       </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1410,6 +2044,14 @@
           <t>마저작침, 아무리 어려운 일이라도 꾸준히 노력하면 이룰 수 있다는 뜻.</t>
         </is>
       </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1422,6 +2064,14 @@
           <t>마부작침, (=마저작침)</t>
         </is>
       </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1432,6 +2082,14 @@
       <c r="B82" t="inlineStr">
         <is>
           <t>백척간두, 「백 자나 되는 높은 장대 위에 올라섰다.」는 뜻으로, 위태(危殆)로움이 극도(極度)에 달함.</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1448,6 +2106,14 @@
 3. 원래(原來)는 「미인(美人)을 사모(思慕)하여 잠을 이루지 못함.」을 이르는 표현(表現)임.</t>
         </is>
       </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1462,6 +2128,14 @@
 3. 또는 입신출세(立身出世)하여 고향(故鄕)으로 돌아가지 않음을 이르는 말.</t>
         </is>
       </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1472,6 +2146,14 @@
       <c r="B85" t="inlineStr">
         <is>
           <t>삼순구식, 「삼순, 곧 한 달에 아홉 번 밥을 먹는다.」는 뜻으로, 집안이 가난하여 먹을 것이 없어 굶주린다는 말.</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1488,6 +2170,14 @@
 3. 또는 영화(榮華)는 일시적(一時的)이어서 계속(繼續)되지 않음</t>
         </is>
       </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1502,6 +2192,14 @@
 3. 또는 영화(榮華)는 일시적(一時的)이어서 계속(繼續)되지 않음</t>
         </is>
       </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1514,6 +2212,14 @@
           <t>내우외환, 「내부(內部)에서 일어나는 근심과 외부(外部)로부터 받는 근심」이란 뜻으로, 나라 안팎의 여러 가지 어려운 사태(事態)를 이르는 말.</t>
         </is>
       </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1526,6 +2232,14 @@
           <t>세계만방</t>
         </is>
       </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1538,6 +2252,14 @@
           <t>득롱망촉, 「농(隴)나라를 얻고 나니 촉(蜀)나라를 갖고 싶다.」는 뜻으로, 인간(人間)의 욕심(欲心ㆍ慾心)은 한이 없음을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
         </is>
       </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1548,6 +2270,14 @@
       <c r="B91" t="inlineStr">
         <is>
           <t>교각살우, 「쇠뿔을 바로 잡으려다 소를 죽인다.」 라는 뜻으로, 결점(缺點)이나 흠을 고치려다 수단(手段)이 지나쳐 도리어 일을 그르침.</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1564,6 +2294,14 @@
 3. 이미 어떤 일을 실패(失敗)한 뒤에 뉘우쳐도 소용이 없음</t>
         </is>
       </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1576,6 +2314,14 @@
           <t>득의양양, 바라던 일이 이루어져서 우쭐거리며 뽐냄.</t>
         </is>
       </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1588,6 +2334,14 @@
           <t>일거양득, 한 가지의 일로 두 가지의 이익(利益)을 보는 것</t>
         </is>
       </c>
+      <c r="C94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1600,6 +2354,14 @@
           <t>종두득두, 「콩을 심어 콩을 얻는다.」는 뜻으로, 원인(原因)에 따라 결과(結果)가 생긴다는 말.</t>
         </is>
       </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1612,6 +2374,14 @@
           <t>망촉지탄, 「촉(蜀) 땅을 얻고 싶어 하는 탄식(歎息ㆍ嘆息)」이라는 뜻으로, 인간(人間)의 욕심(慾心)은 한이 없음을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
         </is>
       </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1624,6 +2394,14 @@
           <t>당랑지부, 「사마귀가 넓적한 앞다리를 쳐드는 모습이 마치 도끼를 휘두르는 것 같다.」는 뜻으로, 자기(自己) 힘을 생각지 않고 강적(強敵) 앞에서 분수(分數)없이 날뛰는 것에 비유(比喩ㆍ譬喩)해서 씀.</t>
         </is>
       </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1636,6 +2414,14 @@
           <t>내자물거,「오는 사람을 막지 말라」는 뜻으로, 자유(自由) 의사(意思)에 맡기라는 말.</t>
         </is>
       </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1646,6 +2432,14 @@
       <c r="B99" t="inlineStr">
         <is>
           <t>교왕과직, 「구부러진 것을 바로잡으려다가 너무 곧게 한다.」는 뜻으로, 잘못을 바로잡으려다 지나쳐 오히려 일을 그르침을 이름.</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1662,6 +2456,14 @@
 3. 하찮은 일로 승강이하는 짓.</t>
         </is>
       </c>
+      <c r="C100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1674,6 +2476,14 @@
           <t>각자무치, 「뿔이 있는 놈은 이가 없다.」는 뜻으로, 한 사람이 모든 복(福)을 겸하지는 못함.</t>
         </is>
       </c>
+      <c r="C101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1684,6 +2494,14 @@
       <c r="B102" t="inlineStr">
         <is>
           <t>살신성인</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -463,7 +463,9 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음」을 비유(比喩ㆍ譬喩)하는 말</t>
+          <t>호질기의, 
+「병을 숨기고 의원에게 보이기를 꺼린다」
+「자신의 결점을 감추고 남의 충고를 듣지 않음」을 비유하는 말</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -483,7 +485,9 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>장두노미, 「머리는 감추었는데 꼬리는 드러나 있다」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미(意味) 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함</t>
+          <t>장두노미, 
+「머리는 감추었는데 꼬리는 드러나 있다」
+「진실을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미 속으로 감추면서 들통 날까봐 전전긍긍하는 태도를 빗대기도 함</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -503,7 +507,9 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>도행역시, 「차례(次例)를 거꾸로 시행(施行)한다」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻</t>
+          <t>도행역시, 
+「차례를 거꾸로 시행한다」
+ 곧 도리에 순종하지 않고 일을 행하며 상도를 벗어나서 일을 억지로 함을 뜻</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -523,7 +529,9 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말</t>
+          <t>파사현정, 
+「불교에서, 부처의 가르침에 어긋나는 사악한 도리를 깨뜨리고 바른 도리를 드러낸다」
+ 그릇된 생각을 버리고 올바른 도리를 행함을 비유해 이르는 말</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -543,11 +551,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻</t>
+          <t>속수무책,
+「손을 묶인 듯이 어찌 할 방책이 없어 꼼짝 못하게 된다」
+ 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -603,7 +613,9 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
+          <t xml:space="preserve">용사비등,
+「용과 뱀이 하늘로 날아오르다」
+ 살아 움직이듯 매우 활기찬 글씨 </t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -623,7 +635,9 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>화사첨족, 「뱀을 그리고 발을 더한다」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함</t>
+          <t>화사첨족, 
+「뱀을 그리고 발을 더한다」
+ 하지 않아도 될 일을 하거나 필요 이상으로 쓸데 없는 일을 하여 도리어 실패함</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -643,7 +657,8 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름 </t>
+          <t xml:space="preserve">침소봉대,
+「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름 </t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -663,8 +678,10 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
-남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말</t>
+          <t>견마지성, 
+「개나 말의 정성」
+ 임금이나 나라에 바치는 정성, 남에게 
+「자기가 바치는 정성」을 아주 겸손하게 일컫는 말</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -684,7 +701,9 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함 </t>
+          <t xml:space="preserve">반포지효, 
+「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성」
+ 자식이 자라서 부모를 봉양함 </t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -704,7 +723,9 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말</t>
+          <t>간어제초, 
+「제나라와 초나라 사이」라
+ 약한 자가 강한 자들 사이에 끼여 괴로움을 받음을 이르는 말</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -724,7 +745,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣) 또는 그러한 재기(才氣)를 가진 사람</t>
+          <t>개세지재, 세상을 마음대로 다스릴 만한 뛰어난 재기 또는 그러한 재기를 가진 사람</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -744,11 +765,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>붕우유신, 오륜(五倫)의 하나 친구(親舊) 사</t>
+          <t>붕우유신, 오륜의 하나 친구 사이의 도리는 믿음에 있음</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -764,7 +785,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>장유유서, 오륜(五倫)의 하나 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음</t>
+          <t>장유유서, 오륜의 하나 어른과 어린이 사이에는 순서와 질서가 있음</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -784,7 +805,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>군신유의, 오륜(五倫)의 하나 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함</t>
+          <t>군신유의, 오륜의 하나 임금과 신하 사이에 의리가 있어야 함</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -804,7 +825,9 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>부부유별, 오륜(五倫)의 하나 「남편(男便)과 아내는 분별(分別)이 있어야 한다」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음</t>
+          <t>부부유별, 오륜의 하나 
+「남편과 아내는 분별이 있어야 한다」
+ 부부 사이에는 인륜상 각각 직분이 있어 서로 침범하지 못할 구별이 있음</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -824,7 +847,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>부자유친, 오륜(五倫)의 하나 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
+          <t>부자유친, 오륜의 하나 아버지와 아들 사이의 도는 친애에 있</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -984,7 +1007,9 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음</t>
+          <t>화이부동 , 
+「남과 사이 좋게 지내되 의를 굽혀 좇지는 아니한다」
+ 곧, 남과 화목하게 지내지만 자기의 중심과 원칙을 잃지 않음</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1004,7 +1029,9 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
+          <t>일사불란, 
+「한 오라기의 실도 흐트러지지 않았다」
+ 질서나 체계 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1044,7 +1071,8 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
+          <t>우이독경, 
+「쇠귀에 경 읽기」란 뜻으로, 우둔한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유하여 이르는 말</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1084,13 +1112,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
-1) 아무리 도와도 보람이 없는 것
-2) 아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말</t>
+          <t>한강투석, 「한강에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻1) 아무리 도와도 보람이 없는 것2) 아무리 투자를 하거나 애를 써도 보람이 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1106,11 +1132,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>맥수지탄, 「나무가 고요하고자 하나</t>
+          <t>맥수지탄, 
+「나무가 고요하고자 하나 바람이 그치지 않는다」
+ 부모에게 효도를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1126,7 +1154,9 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+          <t>풍수지탄, 
+「나무가 고요하고자 하나 바람이 그치지 않는다」
+ 부모에게 효도를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1146,9 +1176,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
-1) 학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움
-2) 방침(方針)이 많아 할 바를 모르게 됨</t>
+          <t>망양지탄, 「달아난 양을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻1) 학문의 길이 여러 갈래로 나뉘어져 있어 진리를 찾기 어려움2) 방침이 많아 할 바를 모르게 됨</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1168,7 +1196,9 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
+          <t>만시지탄, 
+「때늦은 한탄」
+「시기가 늦어 기회를 놓친 것이 원통해서 탄식함」을 이르는 말</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1188,10 +1218,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>비육지탄, 
-1) 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
-2) 자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(
-3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
+          <t>비육지탄, 1) 「넓적다리에 살이 붙음을 탄식한다」는 뜻2) 자기의 뜻을 펴지 못하고 허송세월하는 것을 한탄하다 성공할 기회를 잃고 공연 영웅이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄한다</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1211,7 +1238,9 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
+          <t>절치부심, 
+「이를 갈고 마음을 썩이다」
+ 대단히 분하게 여기고 마음을 썩임</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1231,7 +1260,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
+          <t>사필귀정, 처음에는 시비곡직을 가리지 못하여 그릇되더라도 모든 일은 결국에 가서는 반드시 정리로 돌아감</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1251,7 +1280,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>풍목지비, (→風樹之歎(풍수지탄))</t>
+          <t>풍목지비, )</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1271,7 +1300,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
+          <t>벽사진경, 사귀를 쫓고 경사로운 일을 맞이함</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1291,7 +1320,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
+          <t>견강부회, 이치에 맞지 않는 말을 억지로 끌어 붙여 자기 주장의 조건에 맞도록 함</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1311,7 +1340,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
+          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중히 함</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1331,8 +1360,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
-2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
+          <t>오월동주, 1) 「오나라 사람과 월나라 사람이 한 배에 타고 있다」는 뜻2) 어려운 상황에서는 원수라도 협력하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1352,11 +1380,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1372,7 +1400,8 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+          <t>추처낭중, 
+「주머니 속에 있는 송곳」이란 뜻으로, 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1392,7 +1421,9 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>방휼지쟁, 「도요새가 조개와 다투다가 다 같이 어부(漁夫)에게 잡히고 말았다」는 뜻으로, 제3자(第三者)만 이(利)롭게 하는 다툼을 이르는 말</t>
+          <t>방휼지쟁, 
+「도요새가 조개와 다투다가 다 같이 어부에게 잡히고 말았다」
+ 제3자만 이롭게 하는 다툼을 이르는 말</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1412,10 +1443,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>양두구육, 
-1) 「양(羊) 머리를 걸어놓고 개고기를 판다」는 뜻으로,
-2) 겉은 훌륭해 보이나 속은 그렇지 못한 것 
-3) 겉과 속이 서로 다름</t>
+          <t>양두구육, 1) 「양 머리를 걸어놓고 개고기를 판다」는 뜻2) 겉은 훌륭해 보이나 속은 그렇지 못한 것 3) 겉과 속이 서로 다름</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1435,7 +1463,9 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>면리장침, 「솜 속에 바늘을 감추어 꽂는다」는 뜻으로, 겉으로는 부드러운 듯하나 속으로는 아주 흉악(凶惡)함을 이름</t>
+          <t>면리장침, 
+「솜 속에 바늘을 감추어 꽂는다」
+ 겉으로는 부드러운 듯하나 속으로는 아주 흉악함을 이름</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1455,7 +1485,9 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>후생가외, 「젊은 후학(後學)들을 두려워할 만하다」는 뜻으로, 후진(後進)들이 선배(先輩)들보다 젊고 기력(氣力)이 좋아, 학문(學問)을 닦음에 따라 큰 인물(人物)이 될 수 있으므로 가히 두렵다는 말</t>
+          <t>후생가외, 
+「젊은 후학들을 두려워할 만하다」
+ 후진들이 선배들보다 젊고 기력이 좋아, 학문을 닦음에 따라 큰 인물이 될 수 있으므로 가히 두렵다는 말</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1475,10 +1507,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">불문곡직, 
-1) 「굽음과 곧음을 묻지 않는다」는 뜻으로,
-2) 옳고 그름을 가리지 않고 함부로 일을 처리(處理)함 
-3) 잘잘못을 묻지 않고 함부로 행(行)함 </t>
+          <t xml:space="preserve">불문곡직, 1) 「굽음과 곧음을 묻지 않는다」는 뜻2) 옳고 그름을 가리지 않고 함부로 일을 처리함 3) 잘잘못을 묻지 않고 함부로 행함 </t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1498,10 +1527,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>도청도설, 
-1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」는 뜻으로,
-2) 거리에서 들은 것을 남에게 아는 체하며 말함 
-3) 깊이 생각 않고 예사(例事)로 듣고 말함</t>
+          <t>도청도설, 1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」는 뜻2) 거리에서 들은 것을 남에게 아는 체하며 말함 3) 깊이 생각 않고 예사로 듣고 말함</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1521,7 +1547,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
+          <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1541,7 +1567,8 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>염화미소, 「꽃을 집어 들고 웃음을 띠다.」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전(傳)하는 일을 이르는 말. 불교(佛敎)에서 이심전심(以心傳心)의 뜻으로 쓰이는 말.</t>
+          <t>염화미소, 
+「꽃을 집어 들고 웃음을 띠다」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전하는 일을 이르는 말 불교에서 이심전심의 뜻으로 쓰이는 말</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1561,11 +1588,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>고진감래, 「쓴 것이 다하면 단 것이 온다.」는 뜻으로, 고생(苦生) 끝에 낙이 온다라는 말.</t>
+          <t>고진감래, 
+「쓴 것이 다하면 단 것이 온다」
+ 고생 끝에 낙이 온다라는 말</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1581,11 +1610,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>목불식정, 「고무래를 보고도 그것이 고무래 정(丁)자인 줄 모른다.」는 뜻으로, 글자를 전혀 모름. 또는 그러한 사람을 비유(比喩ㆍ譬喩)해 이르는 말. 낫 놓고 기역자도 모른다. 일자무식을 이르는 말.</t>
+          <t>목불식정, 
+「고무래를 보고도 그것이 고무래 정자인 줄 모른다」
+ 글자를 전혀 모름 또는 그러한 사람을 비유해 이르는 말 낫 놓고 기역자도 모른다 일자무식을 이르는 말</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1605,7 +1636,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1621,11 +1652,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>공도동망, 「넘어져도 같이 넘어지고 망(亡)하여도 같이 망(亡)한다.」는 뜻으로, 운명(運命)을 같이 하는 것.</t>
+          <t>공도동망, 
+「넘어져도 같이 넘어지고 망하여도 같이 망한다」
+ 운명을 같이 하는 것</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1641,7 +1674,9 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>언어도단, 「말할 길이 끊어졌다.」는 뜻으로, 곧, 너무나 엄청나거나 기가 막혀서, 말로써 나타낼 수가 없음.</t>
+          <t>언어도단, 
+「말할 길이 끊어졌다」
+ 곧, 너무나 엄청나거나 기가 막혀서, 말로써 나타낼 수가 없음</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1661,11 +1696,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>언중유골, 「말속에 뼈가 있다.」는 뜻으로, 예사(例事)로운 표현(表現) 속에 만만치 않은 뜻이 들어 있음.</t>
+          <t>언중유골, 
+「말속에 뼈가 있다」
+ 예사로운 표현 속에 만만치 않은 뜻이 들어 있음</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1685,7 +1722,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1701,7 +1738,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>조민유화, 국민(國民)의 화합(和合)과 나아가 인류(人類)의 화합(和合)을 지향(志向)한다는 뜻을 나타냄.</t>
+          <t>조민유화, 국민의 화합과 나아가 인류의 화합을 지향한다는 뜻을 나타냄</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1725,7 +1762,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1745,7 +1782,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1761,11 +1798,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>금석맹약, 쇠와 돌같이 굳게 맹세(盟誓)하여 맺은 약속(約束).</t>
+          <t>금석맹약, 쇠와 돌같이 굳게 맹세하여 맺은 약속</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1781,11 +1818,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>국수주의, 자기(自己) 나라의 고유(固有) 전통(傳統) 문화(文化)만이 우수(優秀)하다고 믿고 다른 나라의 문물(文物)을 지나치게 배척(排斥)하는 태도(態度)나 입장(立場).</t>
+          <t>국수주의, 자기 나라의 고유 전통 문화만이 우수하다고 믿고 다른 나라의 문물을 지나치게 배척하는 태도나 입장</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1801,11 +1838,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>위정척사, 조선(朝鮮) 시대(時代) 후기(後期)에, 정학(正學), 정도(正道)로서의 주자학(朱子學)을 지키고, 사학(邪學), 사도(邪道)로서의 천주교(天主敎)를 물리치려던 주장(主張).</t>
+          <t>위정척사, 조선 시대 후기에, 정학, 정도로서의 주자학을 지키고, 사학, 사도로서의 천주교를 물리치려던 주장</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1821,11 +1858,13 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>상분지도, 「똥도 핥을 놈」이라는 뜻으로, 남에게 아첨(阿諂)하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말.</t>
+          <t>상분지도, 
+「똥도 핥을 놈」
+ 남에게 아첨하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1841,11 +1880,13 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>귤화위지, 「강남(江南)의 귤을 강북(江北)에 심으면 탱자가 된다.」는 뜻으로, 사람도 환경(環境)에 따라 기질(氣質)이 변한다는 말.</t>
+          <t>귤화위지, 
+「강남의 귤을 강북에 심으면 탱자가 된다」
+ 사람도 환경에 따라 기질이 변한다는 말</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1861,11 +1902,13 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>금슬상화, 「거문고와 비파(琵琶) 소리가 조화(調和)를 이룬다.」는 뜻으로, 부부(夫婦) 사이가 다정(多情)하고 화목(和睦)함을 이르는 말.</t>
+          <t>금슬상화, 
+「거문고와 비파 소리가 조화를 이룬다」
+ 부부 사이가 다정하고 화목함을 이르는 말</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1881,11 +1924,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>여필종부, 아내는 반드시 남편(男便)의 뜻을 좇아야 한다는 말.</t>
+          <t>여필종부, 아내는 반드시 남편의 뜻을 좇아야 한다는 말</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1901,11 +1944,13 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>담소자약, 「태연(泰然)하게 담소(談笑)를 즐긴다.」는 뜻으로, 위험(危險)이나 곤란(困難)에 직면(直面)해 걱정과 근심이 있을 때라도 변(變)함없이 평상시(平常時)와 같은 태도(態度)를 가짐.</t>
+          <t>담소자약, 
+「태연하게 담소를 즐긴다」
+ 위험이나 곤란에 직면해 걱정과 근심이 있을 때라도 변함없이 평상시와 같은 태도를 가짐</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1921,11 +1966,13 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>남부여대, 「남자(男子)는 짐을 따위에 지고, 여자(女子)는 짐을 머리에 인다.」는 뜻으로, 가난한 사람이나 재난(災難)을 당(當)한 사람들이 살 곳을 찾아 이리저리 떠돌아다니는 것을 이르는 말.</t>
+          <t>남부여대, 
+「남자는 짐을 따위에 지고, 여자는 짐을 머리에 인다」
+ 가난한 사람이나 재난을 당한 사람들이 살 곳을 찾아 이리저리 떠돌아다니는 것을 이르는 말</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1941,11 +1988,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>무릉도원, 이 세상(世上)을 떠난 별천지(別天地)를 이르는 말.</t>
+          <t>무릉도원, 이 세상을 떠난 별천지를 이르는 말</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1961,11 +2008,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>안분지족, 자기(自己) 분수(分數)에 만족(滿足)하여 다른 데 마음을 두지 아니함.</t>
+          <t>안분지족, 자기 분수에 만족하여 다른 데 마음을 두지 아니함</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1981,7 +2028,9 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>단표누항, 「도시락과 표주박과 누추(陋醜)한 거리」라는 뜻으로, 소박(素朴)한 시골 생활(生活)을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
+          <t>단표누항, 
+「도시락과 표주박과 누추한 거리」라
+ 소박한 시골 생활을 비유해 이르는 말</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2001,7 +2050,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>풍월주인, 맑은 바람과 밝은 달 등(等)의 자연(自然)을 즐기는 사람을 이르는 말.</t>
+          <t>풍월주인, 맑은 바람과 밝은 달 등의 자연을 즐기는 사람을 이르는 말</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2021,11 +2070,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>고혈단신, 혈육(血肉)이 없는 외로운 신세(身世).</t>
+          <t>고혈단신, 혈육이 없는 외로운 신세</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2041,11 +2090,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>마저작침, 아무리 어려운 일이라도 꾸준히 노력하면 이룰 수 있다는 뜻.</t>
+          <t>마저작침, 아무리 어려운 일이라도 꾸준히 노력하면 이룰 수 있다는 뜻</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2061,11 +2110,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>마부작침, (=마저작침)</t>
+          <t xml:space="preserve">마부작침, </t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2081,11 +2130,13 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>백척간두, 「백 자나 되는 높은 장대 위에 올라섰다.」는 뜻으로, 위태(危殆)로움이 극도(極度)에 달함.</t>
+          <t>백척간두, 
+「백 자나 되는 높은 장대 위에 올라섰다」
+ 위태로움이 극도에 달함</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2101,13 +2152,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>전전반측, 1. 「이리 뒤척 저리 뒤척 한다.」는 뜻으로,
-2. 걱정거리로 마음이 괴로워 잠을 이루지 못함을 이르는 말.
-3. 원래(原來)는 「미인(美人)을 사모(思慕)하여 잠을 이루지 못함.」을 이르는 표현(表現)임.</t>
+          <t>전전반측, 
+1) 「이리 뒤척 저리 뒤척 한다」는 뜻
+2) 걱정거리로 마음이 괴로워 잠을 이루지 못함을 이르는 말
+3) 원래는 「미인을 사모하여 잠을 이루지 못함」을 이르는 표현임</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2123,13 +2175,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>금의야행, 1. 「비단옷(緋緞-)을 입고 밤길을 간다.」는 뜻으로,
-2. 아무 보람없는 행동(行動)을 비유(比喩ㆍ譬喩)하여 이르는 말.
-3. 또는 입신출세(立身出世)하여 고향(故鄕)으로 돌아가지 않음을 이르는 말.</t>
+          <t>금의야행, 
+1) 「비단옷을 입고 밤길을 간다」는 뜻
+2) 아무 보람없는 행동을 비유하여 이르는 말
+3) 또는 입신출세하여 고향으로 돌아가지 않음을 이르는 말</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2145,11 +2198,13 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>삼순구식, 「삼순, 곧 한 달에 아홉 번 밥을 먹는다.」는 뜻으로, 집안이 가난하여 먹을 것이 없어 굶주린다는 말.</t>
+          <t>삼순구식, 
+「삼순, 곧 한 달에 아홉 번 밥을 먹는다」
+ 집안이 가난하여 먹을 것이 없어 굶주린다는 말</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2165,13 +2220,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>권불십년, 1. 「권세(權勢)는 10년을 넘지 못한다.」는 뜻으로,
-2. 권력(權力)은 오래가지 못하고 늘 변(變)함.
-3. 또는 영화(榮華)는 일시적(一時的)이어서 계속(繼續)되지 않음</t>
+          <t>권불십년, 
+1) 「권세는 10년을 넘지 못한다」는 뜻
+2) 권력은 오래가지 못하고 늘 변함
+3) 또는 영화는 일시적이어서 계속되지 않음</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2187,13 +2243,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>세불십년, 1. 「권세(權勢)는 10년을 넘지 못한다.」는 뜻으로,
-2. 권력(權力)은 오래가지 못하고 늘 변(變)함.
-3. 또는 영화(榮華)는 일시적(一時的)이어서 계속(繼續)되지 않음</t>
+          <t>세불십년, 
+1) 「권세는 10년을 넘지 못한다」는 뜻
+2) 권력은 오래가지 못하고 늘 변함
+3) 또는 영화는 일시적이어서 계속되지 않음</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2209,11 +2266,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>내우외환, 「내부(內部)에서 일어나는 근심과 외부(外部)로부터 받는 근심」이란 뜻으로, 나라 안팎의 여러 가지 어려운 사태(事態)를 이르는 말.</t>
+          <t>내우외환, 
+「내부에서 일어나는 근심과 외부로부터 받는 근심」이란 뜻으로, 나라 안팎의 여러 가지 어려운 사태를 이르는 말</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2233,7 +2291,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2249,11 +2307,13 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>득롱망촉, 「농(隴)나라를 얻고 나니 촉(蜀)나라를 갖고 싶다.」는 뜻으로, 인간(人間)의 욕심(欲心ㆍ慾心)은 한이 없음을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
+          <t>득롱망촉, 
+「농나라를 얻고 나니 촉나라를 갖고 싶다」
+ 인간의 욕심은 한이 없음을 비유해 이르는 말</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2269,7 +2329,9 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>교각살우, 「쇠뿔을 바로 잡으려다 소를 죽인다.」 라는 뜻으로, 결점(缺點)이나 흠을 고치려다 수단(手段)이 지나쳐 도리어 일을 그르침.</t>
+          <t>교각살우, 
+「쇠뿔을 바로 잡으려다 소를 죽인다」 라
+ 결점이나 흠을 고치려다 수단이 지나쳐 도리어 일을 그르침</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2289,13 +2351,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>망양보뢰, 1. 「양(羊)을 잃고서 그 우리를 고친다.」는 뜻으로,
-2. 실패(失敗)한 후(後)에 일을 대비(對備)함.
-3. 이미 어떤 일을 실패(失敗)한 뒤에 뉘우쳐도 소용이 없음</t>
+          <t>망양보뢰, 
+1) 「양을 잃고서 그 우리를 고친다」는 뜻
+2) 실패한 후에 일을 대비함
+3) 이미 어떤 일을 실패한 뒤에 뉘우쳐도 소용이 없음</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2311,11 +2374,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>득의양양, 바라던 일이 이루어져서 우쭐거리며 뽐냄.</t>
+          <t>득의양양, 바라던 일이 이루어져서 우쭐거리며 뽐냄</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2331,7 +2394,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>일거양득, 한 가지의 일로 두 가지의 이익(利益)을 보는 것</t>
+          <t>일거양득, 한 가지의 일로 두 가지의 이익을 보는 것</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2351,11 +2414,13 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>종두득두, 「콩을 심어 콩을 얻는다.」는 뜻으로, 원인(原因)에 따라 결과(結果)가 생긴다는 말.</t>
+          <t>종두득두, 
+「콩을 심어 콩을 얻는다」
+ 원인에 따라 결과가 생긴다는 말</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2371,11 +2436,13 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>망촉지탄, 「촉(蜀) 땅을 얻고 싶어 하는 탄식(歎息ㆍ嘆息)」이라는 뜻으로, 인간(人間)의 욕심(慾心)은 한이 없음을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
+          <t>망촉지탄, 
+「촉 땅을 얻고 싶어 하는 탄식」
+ 인간의 욕심은 한이 없음을 비유해 이르는 말</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2391,11 +2458,13 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>당랑지부, 「사마귀가 넓적한 앞다리를 쳐드는 모습이 마치 도끼를 휘두르는 것 같다.」는 뜻으로, 자기(自己) 힘을 생각지 않고 강적(強敵) 앞에서 분수(分數)없이 날뛰는 것에 비유(比喩ㆍ譬喩)해서 씀.</t>
+          <t>당랑지부, 
+「사마귀가 넓적한 앞다리를 쳐드는 모습이 마치 도끼를 휘두르는 것 같다」
+ 자기 힘을 생각지 않고 강적 앞에서 분수없이 날뛰는 것에 비유해서 씀</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2411,11 +2480,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>내자물거,「오는 사람을 막지 말라」는 뜻으로, 자유(自由) 의사(意思)에 맡기라는 말.</t>
+          <t>내자물거,
+「오는 사람을 막지 말라」, 자유 의사에 맡기라는 말</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2431,11 +2501,13 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>교왕과직, 「구부러진 것을 바로잡으려다가 너무 곧게 한다.」는 뜻으로, 잘못을 바로잡으려다 지나쳐 오히려 일을 그르침을 이름.</t>
+          <t>교왕과직, 
+「구부러진 것을 바로잡으려다가 너무 곧게 한다」
+ 잘못을 바로잡으려다 지나쳐 오히려 일을 그르침을 이름</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2451,9 +2523,10 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>와각지쟁, 1. 「달팽이의 촉각(觸角) 위에서 싸운다.」는 뜻으로
-2. 작은 나라끼리의 싸움.
-3. 하찮은 일로 승강이하는 짓.</t>
+          <t>와각지쟁, 
+1) 「달팽이의 촉각 위에서 싸운다」
+2) 작은 나라끼리의 싸움
+3) 하찮은 일로 승강이하는 짓</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2473,7 +2546,9 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>각자무치, 「뿔이 있는 놈은 이가 없다.」는 뜻으로, 한 사람이 모든 복(福)을 겸하지는 못함.</t>
+          <t>각자무치, 
+「뿔이 있는 놈은 이가 없다」
+ 한 사람이 모든 복을 겸하지는 못함</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2497,7 +2572,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,6 @@
           <t>대답</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>오답가산점</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -468,14 +458,6 @@
 「자신의 결점을 감추고 남의 충고를 듣지 않음」을 비유하는 말</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -490,14 +472,6 @@
 「진실을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미 속으로 감추면서 들통 날까봐 전전긍긍하는 태도를 빗대기도 함</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -512,14 +486,6 @@
  곧 도리에 순종하지 않고 일을 행하며 상도를 벗어나서 일을 억지로 함을 뜻</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -534,14 +500,6 @@
  그릇된 생각을 버리고 올바른 도리를 행함을 비유해 이르는 말</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -551,17 +509,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>속수무책,
+          <t xml:space="preserve">속수무책,
 「손을 묶인 듯이 어찌 할 방책이 없어 꼼짝 못하게 된다」
- 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>기본</t>
+ 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다
+</t>
         </is>
       </c>
     </row>
@@ -576,14 +527,6 @@
           <t>이합집산, 헤어졌다가 모였다가 하는 일</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -594,14 +537,6 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -618,14 +553,6 @@
  살아 움직이듯 매우 활기찬 글씨 </t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -640,14 +567,6 @@
  하지 않아도 될 일을 하거나 필요 이상으로 쓸데 없는 일을 하여 도리어 실패함</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -659,14 +578,6 @@
         <is>
           <t xml:space="preserve">침소봉대,
 「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름 </t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -684,14 +595,6 @@
 「자기가 바치는 정성」을 아주 겸손하게 일컫는 말</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -706,14 +609,6 @@
  자식이 자라서 부모를 봉양함 </t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -724,16 +619,8 @@
       <c r="B14" t="inlineStr">
         <is>
           <t>간어제초, 
-「제나라와 초나라 사이」라
+「제나라와 초나라 사이」
  약한 자가 강한 자들 사이에 끼여 괴로움을 받음을 이르는 말</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -748,14 +635,6 @@
           <t>개세지재, 세상을 마음대로 다스릴 만한 뛰어난 재기 또는 그러한 재기를 가진 사람</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -768,14 +647,6 @@
           <t>붕우유신, 오륜의 하나 친구 사이의 도리는 믿음에 있음</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -788,14 +659,6 @@
           <t>장유유서, 오륜의 하나 어른과 어린이 사이에는 순서와 질서가 있음</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -806,14 +669,6 @@
       <c r="B18" t="inlineStr">
         <is>
           <t>군신유의, 오륜의 하나 임금과 신하 사이에 의리가 있어야 함</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -830,14 +685,6 @@
  부부 사이에는 인륜상 각각 직분이 있어 서로 침범하지 못할 구별이 있음</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -850,14 +697,6 @@
           <t>부자유친, 오륜의 하나 아버지와 아들 사이의 도는 친애에 있</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -870,14 +709,6 @@
           <t>부귀공명</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -890,14 +721,6 @@
           <t>전력투구</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -910,14 +733,6 @@
           <t>토사구팽</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -930,14 +745,6 @@
           <t>권토중래</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -950,14 +757,6 @@
           <t>수불석권</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -970,14 +769,6 @@
           <t>아전인수</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -990,14 +781,6 @@
           <t>대증요법</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1007,17 +790,9 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>화이부동 , 
+          <t>화이부동, 
 「남과 사이 좋게 지내되 의를 굽혀 좇지는 아니한다」
  곧, 남과 화목하게 지내지만 자기의 중심과 원칙을 잃지 않음</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1034,14 +809,6 @@
  질서나 체계 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1054,14 +821,6 @@
           <t>곡복사신, 밥 먹고 옷 입는 일</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1075,14 +834,6 @@
 「쇠귀에 경 읽기」란 뜻으로, 우둔한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유하여 이르는 말</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1095,14 +846,6 @@
           <t>경국지사, 나랏일을 다스릴 만한 사람</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1112,15 +855,9 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한강투석, 「한강에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻1) 아무리 도와도 보람이 없는 것2) 아무리 투자를 하거나 애를 써도 보람이 없음을 이르는 말</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>기본</t>
+          <t>한강투석, 「한강에 아무리 돌을 많이 집어 넣어도 메울 수 없다」
+1) 아무리 도와도 보람이 없는 것
+2) 아무리 투자를 하거나 애를 써도 보람이 없음을 이르는 말</t>
         </is>
       </c>
     </row>
@@ -1137,14 +874,6 @@
  부모에게 효도를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1159,14 +888,6 @@
  부모에게 효도를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1176,15 +897,9 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>망양지탄, 「달아난 양을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻1) 학문의 길이 여러 갈래로 나뉘어져 있어 진리를 찾기 어려움2) 방침이 많아 할 바를 모르게 됨</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>기본</t>
+          <t>망양지탄, 「달아난 양을 찾다가 여러 갈래 길에 이르러 길을 잃었다」
+1) 학문의 길이 여러 갈래로 나뉘어져 있어 진리를 찾기 어려움
+2) 방침이 많아 할 바를 모르게 됨</t>
         </is>
       </c>
     </row>
@@ -1201,14 +916,6 @@
 「시기가 늦어 기회를 놓친 것이 원통해서 탄식함」을 이르는 말</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1218,15 +925,9 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>비육지탄, 1) 「넓적다리에 살이 붙음을 탄식한다」는 뜻2) 자기의 뜻을 펴지 못하고 허송세월하는 것을 한탄하다 성공할 기회를 잃고 공연 영웅이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄한다</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>기본</t>
+          <t>비육지탄, 
+1) 「넓적다리에 살이 붙음을 탄식한다」
+2) 자기의 뜻을 펴지 못하고 허송세월하는 것을 한탄하다 성공할 기회를 잃고 공연이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄한다</t>
         </is>
       </c>
     </row>
@@ -1243,14 +944,6 @@
  대단히 분하게 여기고 마음을 썩임</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1263,14 +956,6 @@
           <t>사필귀정, 처음에는 시비곡직을 가리지 못하여 그릇되더라도 모든 일은 결국에 가서는 반드시 정리로 돌아감</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1283,14 +968,6 @@
           <t>풍목지비, )</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1303,14 +980,6 @@
           <t>벽사진경, 사귀를 쫓고 경사로운 일을 맞이함</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1323,14 +992,6 @@
           <t>견강부회, 이치에 맞지 않는 말을 억지로 끌어 붙여 자기 주장의 조건에 맞도록 함</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1343,14 +1004,6 @@
           <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중히 함</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1360,15 +1013,10 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>오월동주, 1) 「오나라 사람과 월나라 사람이 한 배에 타고 있다」는 뜻2) 어려운 상황에서는 원수라도 협력하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>기본</t>
+          <t>오월동주, 
+1) 「오나라 사람과 월나라 사람이 한 배에 타고 있다」
+2) 어려운 상황에서는 원수라도 협력하게 됨 
+3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
         </is>
       </c>
     </row>
@@ -1380,15 +1028,8 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>기본</t>
+          <t>낭중지추, 
+1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
         </is>
       </c>
     </row>
@@ -1402,14 +1043,6 @@
         <is>
           <t>추처낭중, 
 「주머니 속에 있는 송곳」이란 뜻으로, 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1426,14 +1059,6 @@
  제3자만 이롭게 하는 다툼을 이르는 말</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1443,15 +1068,10 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>양두구육, 1) 「양 머리를 걸어놓고 개고기를 판다」는 뜻2) 겉은 훌륭해 보이나 속은 그렇지 못한 것 3) 겉과 속이 서로 다름</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>기본</t>
+          <t>양두구육, 
+1) 「양 머리를 걸어놓고 개고기를 판다」
+2) 겉은 훌륭해 보이나 속은 그렇지 못한 것 
+3) 겉과 속이 서로 다름</t>
         </is>
       </c>
     </row>
@@ -1468,14 +1088,6 @@
  겉으로는 부드러운 듯하나 속으로는 아주 흉악함을 이름</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1490,14 +1102,6 @@
  후진들이 선배들보다 젊고 기력이 좋아, 학문을 닦음에 따라 큰 인물이 될 수 있으므로 가히 두렵다는 말</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1507,15 +1111,10 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">불문곡직, 1) 「굽음과 곧음을 묻지 않는다」는 뜻2) 옳고 그름을 가리지 않고 함부로 일을 처리함 3) 잘잘못을 묻지 않고 함부로 행함 </t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>기본</t>
+          <t xml:space="preserve">불문곡직, 
+1) 「굽음과 곧음을 묻지 않는다」
+2) 옳고 그름을 가리지 않고 함부로 일을 처리함 
+3) 잘잘못을 묻지 않고 함부로 행함 </t>
         </is>
       </c>
     </row>
@@ -1527,15 +1126,10 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>도청도설, 1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」는 뜻2) 거리에서 들은 것을 남에게 아는 체하며 말함 3) 깊이 생각 않고 예사로 듣고 말함</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>기본</t>
+          <t>도청도설, 
+1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」
+2) 거리에서 들은 것을 남에게 아는 체하며 말함 
+3) 깊이 생각 않고 예사로 듣고 말함</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1144,6 @@
           <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1569,14 +1155,6 @@
         <is>
           <t>염화미소, 
 「꽃을 집어 들고 웃음을 띠다」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전하는 일을 이르는 말 불교에서 이심전심의 뜻으로 쓰이는 말</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1593,14 +1171,6 @@
  고생 끝에 낙이 온다라는 말</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1615,14 +1185,6 @@
  글자를 전혀 모름 또는 그러한 사람을 비유해 이르는 말 낫 놓고 기역자도 모른다 일자무식을 이르는 말</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1633,14 +1195,6 @@
       <c r="B58" t="inlineStr">
         <is>
           <t>공공기업</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1657,14 +1211,6 @@
  운명을 같이 하는 것</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1679,14 +1225,6 @@
  곧, 너무나 엄청나거나 기가 막혀서, 말로써 나타낼 수가 없음</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1701,14 +1239,6 @@
  예사로운 표현 속에 만만치 않은 뜻이 들어 있음</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1721,14 +1251,6 @@
           <t>회자정리</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1738,15 +1260,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>조민유화, 국민의 화합과 나아가 인류의 화합을 지향한다는 뜻을 나타냄</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>기본</t>
+          <t>조민유화, 국민의 화합과 나아가 인류의 화합을 지향한다,을 나타냄</t>
         </is>
       </c>
     </row>
@@ -1761,14 +1275,6 @@
           <t>주마간산</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1781,14 +1287,6 @@
           <t>묵묵부답</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1801,14 +1299,6 @@
           <t>금석맹약, 쇠와 돌같이 굳게 맹세하여 맺은 약속</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1821,14 +1311,6 @@
           <t>국수주의, 자기 나라의 고유 전통 문화만이 우수하다고 믿고 다른 나라의 문물을 지나치게 배척하는 태도나 입장</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1839,14 +1321,6 @@
       <c r="B68" t="inlineStr">
         <is>
           <t>위정척사, 조선 시대 후기에, 정학, 정도로서의 주자학을 지키고, 사학, 사도로서의 천주교를 물리치려던 주장</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1863,14 +1337,6 @@
  남에게 아첨하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1885,14 +1351,6 @@
  사람도 환경에 따라 기질이 변한다는 말</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1907,14 +1365,6 @@
  부부 사이가 다정하고 화목함을 이르는 말</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1925,14 +1375,6 @@
       <c r="B72" t="inlineStr">
         <is>
           <t>여필종부, 아내는 반드시 남편의 뜻을 좇아야 한다는 말</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1949,14 +1391,6 @@
  위험이나 곤란에 직면해 걱정과 근심이 있을 때라도 변함없이 평상시와 같은 태도를 가짐</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1971,14 +1405,6 @@
  가난한 사람이나 재난을 당한 사람들이 살 곳을 찾아 이리저리 떠돌아다니는 것을 이르는 말</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1991,14 +1417,6 @@
           <t>무릉도원, 이 세상을 떠난 별천지를 이르는 말</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2011,14 +1429,6 @@
           <t>안분지족, 자기 분수에 만족하여 다른 데 마음을 두지 아니함</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2029,16 +1439,8 @@
       <c r="B77" t="inlineStr">
         <is>
           <t>단표누항, 
-「도시락과 표주박과 누추한 거리」라
+「도시락과 표주박과 누추한 거리」
  소박한 시골 생활을 비유해 이르는 말</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2053,14 +1455,6 @@
           <t>풍월주인, 맑은 바람과 밝은 달 등의 자연을 즐기는 사람을 이르는 말</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2073,14 +1467,6 @@
           <t>고혈단신, 혈육이 없는 외로운 신세</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2090,15 +1476,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>마저작침, 아무리 어려운 일이라도 꾸준히 노력하면 이룰 수 있다는 뜻</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>기본</t>
+          <t>마저작침, 아무리 어려운 일이라도 꾸준히 노력하면 이룰 수 있다,</t>
         </is>
       </c>
     </row>
@@ -2111,14 +1489,6 @@
       <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">마부작침, </t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2135,14 +1505,6 @@
  위태로움이 극도에 달함</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2153,19 +1515,11 @@
       <c r="B83" t="inlineStr">
         <is>
           <t>전전반측, 
-1) 「이리 뒤척 저리 뒤척 한다」는 뜻
+1) 「이리 뒤척 저리 뒤척 한다」
 2) 걱정거리로 마음이 괴로워 잠을 이루지 못함을 이르는 말
 3) 원래는 「미인을 사모하여 잠을 이루지 못함」을 이르는 표현임</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2176,17 +1530,9 @@
       <c r="B84" t="inlineStr">
         <is>
           <t>금의야행, 
-1) 「비단옷을 입고 밤길을 간다」는 뜻
+1) 「비단옷을 입고 밤길을 간다」
 2) 아무 보람없는 행동을 비유하여 이르는 말
-3) 또는 입신출세하여 고향으로 돌아가지 않음을 이르는 말</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>기본</t>
+3)  입신출세하여 고향으로 돌아가지 않음을 이르는 말</t>
         </is>
       </c>
     </row>
@@ -2203,14 +1549,6 @@
  집안이 가난하여 먹을 것이 없어 굶주린다는 말</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2221,17 +1559,9 @@
       <c r="B86" t="inlineStr">
         <is>
           <t>권불십년, 
-1) 「권세는 10년을 넘지 못한다」는 뜻
+1) 「권세는 10년을 넘지 못한다」
 2) 권력은 오래가지 못하고 늘 변함
-3) 또는 영화는 일시적이어서 계속되지 않음</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>기본</t>
+3)  영화는 일시적이어서 계속되지 않음</t>
         </is>
       </c>
     </row>
@@ -2244,17 +1574,9 @@
       <c r="B87" t="inlineStr">
         <is>
           <t>세불십년, 
-1) 「권세는 10년을 넘지 못한다」는 뜻
+1) 「권세는 10년을 넘지 못한다」
 2) 권력은 오래가지 못하고 늘 변함
-3) 또는 영화는 일시적이어서 계속되지 않음</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>기본</t>
+3)  영화는 일시적이어서 계속되지 않음</t>
         </is>
       </c>
     </row>
@@ -2270,14 +1592,6 @@
 「내부에서 일어나는 근심과 외부로부터 받는 근심」이란 뜻으로, 나라 안팎의 여러 가지 어려운 사태를 이르는 말</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2288,14 +1602,6 @@
       <c r="B89" t="inlineStr">
         <is>
           <t>세계만방</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2312,14 +1618,6 @@
  인간의 욕심은 한이 없음을 비유해 이르는 말</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2330,16 +1628,8 @@
       <c r="B91" t="inlineStr">
         <is>
           <t>교각살우, 
-「쇠뿔을 바로 잡으려다 소를 죽인다」 라
+「쇠뿔을 바로 잡으려다 소를 죽인다」 
  결점이나 흠을 고치려다 수단이 지나쳐 도리어 일을 그르침</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2352,19 +1642,11 @@
       <c r="B92" t="inlineStr">
         <is>
           <t>망양보뢰, 
-1) 「양을 잃고서 그 우리를 고친다」는 뜻
+1) 「양을 잃고서 그 우리를 고친다」
 2) 실패한 후에 일을 대비함
 3) 이미 어떤 일을 실패한 뒤에 뉘우쳐도 소용이 없음</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2377,14 +1659,6 @@
           <t>득의양양, 바라던 일이 이루어져서 우쭐거리며 뽐냄</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2395,14 +1669,6 @@
       <c r="B94" t="inlineStr">
         <is>
           <t>일거양득, 한 가지의 일로 두 가지의 이익을 보는 것</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2419,14 +1685,6 @@
  원인에 따라 결과가 생긴다는 말</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2441,14 +1699,6 @@
  인간의 욕심은 한이 없음을 비유해 이르는 말</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2463,14 +1713,6 @@
  자기 힘을 생각지 않고 강적 앞에서 분수없이 날뛰는 것에 비유해서 씀</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2482,14 +1724,6 @@
         <is>
           <t>내자물거,
 「오는 사람을 막지 말라」, 자유 의사에 맡기라는 말</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2506,14 +1740,6 @@
  잘못을 바로잡으려다 지나쳐 오히려 일을 그르침을 이름</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2525,16 +1751,9 @@
         <is>
           <t>와각지쟁, 
 1) 「달팽이의 촉각 위에서 싸운다」
+으로
 2) 작은 나라끼리의 싸움
 3) 하찮은 일로 승강이하는 짓</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2551,14 +1770,6 @@
  한 사람이 모든 복을 겸하지는 못함</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2571,12 +1782,101 @@
           <t>살신성인</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>기본</t>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>盲者正門</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>맹자정문, 
+「맹인이 정문을 바로 찾아 들어간다」
+「어리석은 사람이 어쩌다 이치에 들어맞는 일을 함」의 비유</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>暴虎馮河</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>포호빙하, 
+「범을 맨손으로 두드려 잡고, 큰 강을 배 없이 걸어서 건넌다」
+ 용기는 있으나 무모하기 이를 데 없는 행위를 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>上下撐石</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>상하탱석, 
+「윗돌 빼서 아랫돌 괴고, 아랫돌 빼서 윗돌을 괸다」
+「몹시 꼬이는 일을 당하여 임시변통으로 이리저리 맞추어 나감」을 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>望雲之情</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>망운지정, 
+1)「구름을 바라보며 그리워한다」
+2)타향에서 고향에 계신 부모를 생각함
+3)멀리 떠나온 자식이 어버이를 사모하여 그리는 정</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>名論卓說</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>명론탁설, 이름난 논문과 탁월한 학설</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>命在頃刻</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>명재경각, 
+「목숨이 경각에 달렸다」
+ 숨이 곧 끊어질 지경에 이름 거의 죽게 됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>櫛風沐雨</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>즐풍목우, 
+「바람에 머리를 빗고, 비에 몸을 씻는다」
+ 긴 세월을 이리저리 떠돌며 갖은 고생을 다함을 이르는 말</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1880,6 +1880,322 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>敝衣破冠</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>폐의파관, 
+「해어진 옷과 부서진 갓」
+ 너절하고 구차한 차림새를 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>敝袍破笠</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>폐포파립, 
+「해진 옷과 부러진 갓」이란 뜻으로, 너절하고 구차한 차림새를 말함</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>傾國之色</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>경국지색, 
+1)「나라를 기울일 만한 여자」
+2)첫눈에 반할 만큼 매우 아름다운 여자
+3)나라를 위태롭게 한다는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>鏡中美人</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>경중미인, 
+1)「거울 속의 미인」
+2)실속이 없는 일
+3)실속보다는 겉치레 뿐인 사람</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>指鹿爲馬</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>지록위마, 
+1)「사슴을 가리켜 말이라고 한다」
+2)사실이 아닌 것을 사실로 만들어 강압으로 인정하게 됨
+3)윗사람을 농락하여 권세를 마음대로 함</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>芝蘭之化</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>지란지화, 좋은 친구와 사귀면 자연히 그 아름다운 덕에 감화됨을 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>目不忍見</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>목불인견, 
+1) 차마 눈으로 볼 수 없을 정도로 딱하거나 참혹한 상황</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>法古創新</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">법고창신, 
+「옛것을 본받아 새로운 것을 창조한다」
+ 옛것에 토대를 두되 그것을 변화시킬 줄 알고 새 것을 만들어 가되 근본을 잃지 않아야 한다
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>物我一體</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>물아일체, 바깥 사물과 나, 객관과 주관 또는 물질계와 정신계가 어울려 한 몸으로 이루어진 그것</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>滄桑世界</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>창상세계, 변하고 변하는 세상</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>昏定晨省</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>혼정신성, 
+「저녁에는 잠자리를 보아 드리고, 아침에는 문안을 드린다」
+「자식이 아침저녁으로 부모의 안부를 물어서 살핌」을 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>肝膽相照</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>간담상조, 
+「간과 쓸개를 내놓고 서로에게 내보인다」
+ 서로 마음을 터놓고 친밀히 사귐</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>磨斧爲針</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">마부위침, 
+「도끼를 갈아 바늘을 만든다」
+ 아무리 이루기 힘든 일도 끊임없는 노력과 끈기 있는 인내로 성공하고야 만다
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>孤掌難鳴</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>고장난명, 
+1)「외손뼉은 울릴 수 없다」
+2)혼자서는 어떤 일을 이룰 수 없다는 말
+3)상대 없이는 싸움이 일어나지 않음을 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>丹脣皓齒</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>단순호치, 
+1)「붉은 입술과 하얀 이」란 뜻으로,
+2)여자의 아름다운 얼굴을 이르는 말
+3)미인의 얼굴</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>芝蘭之交</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>지란지교, 
+「지초와 난초 같은 향기로운 사귐」
+「벗 사이의 고상한 교제」를 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>金蘭之契</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>금란지계, 
+「쇠처럼 단단하고 난초 향기처럼 그윽한 사귐의 의리를 맺는다」
+ 사이 좋은 벗끼리 마음을 합치면 단단한 쇠도 자를 수 있고, 우정의 아름다움은 난의 향기와 같이 아주 친밀한 친구 사이를 이름</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>刎頸之交</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>문경지교, 
+「목을 벨 수 있는 벗」
+ 생사를 같이 할 수 있는 매우 소중한 벗</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>輾轉不寐</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>전전불매, 누워서 이리저리 뒤척이며 잠을 이루지 못한다는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>琴瑟之樂</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>금슬지락, 
+「거문고와 비파의 조화로운 소리」
+ 부부 사이의 다정하고 화목한 즐거움</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>花朝月夕</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>화조월석, 
+1)「꽃이 핀 아침과 달 밝은 저녁」이란 뜻으로,
+2)「경치가 가장 좋은 때」를 이르는 말
+3)음력 2월 보름과 8월 보름 밤 봄과 가을</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>韋編三絶</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>위편삼절, 공자가 책을 하도 많이 읽어서 그것을 엮어 놓은 끈이 세 번이나 끊어졌다</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>莫無可奈</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>막무가내, 도무지 어찌할 수 없음</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2196,6 +2196,169 @@
         </is>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>三顧草廬</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>삼고초려</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>類類相從</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">유유상종, 사물은 같은 무리끼리 따르고, 같은 사람은 서로 찾아 모인다
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>苦肉之策</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>고육지책, 적을 속이는 수단으로서 제 몸 괴롭히는 것을 돌보지 않고 쓰는 계책</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>孤立無援</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>고립무원, 고립되어 도움을 받을 데가 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>拍掌大笑</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>박장대소</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>艱難辛苦</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>간난신고, 
+「몹시 고되고 어렵고 맵고 쓰다」
+ 몹시 힘든 고생을 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>難攻不落</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>난공불락</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>難兄難弟</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>난형난제</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>百家爭鳴</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>백가쟁명, 
+1)여러 사람이 서로 자기 주장을 내세우는 일
+2)많은 학자들의 활발한 논쟁</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>塞翁之馬</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>새옹지마</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>臨機應變</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>임기응변</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>捨生取義</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>사생취의, 
+「목숨을 버리고 의리를 좇는다」
+「비록 목숨을 버릴지언정 옳은 일을 함」을 일컫는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>見利思義</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>견리사의, 눈앞의 이익을 보면 의리를 먼저 생각함</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,8 +576,8 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">침소봉대,
-「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름 </t>
+          <t>침소봉대,
+「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을</t>
         </is>
       </c>
     </row>
@@ -2359,6 +2359,19 @@
         </is>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>針小棒大</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">침소봉대,
+「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름 </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2372,6 +2372,62 @@
         </is>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>水滴穿石</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>수적천석 | 
+「물방울이 바위를 뚫는다」
+ 작은 노력이라도 끈기 있게 계속하면 큰 일을 이룰 수 있음</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>深思熟考</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>심사숙고 | 
+1)깊이 생각하고 깊이 고찰함
+2)신중을 기하여 곰곰이 생각함</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>尸位素餐</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>시위소찬 | 
+「재덕이나 공적도 없이 높은 자리에 앉아 녹만 받는다」
+ 자기 직책을 다하지 않음을 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>狐假虎威</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>호가호위 | 
+「여우가 호랑이의 위세를 빌려 호기를 부린다」
+ 남의 세력을 빌어 위세를 부림</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2428,6 +2428,85 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>街談巷說</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>가담항설, 
+1) 길거리나 세상 사람들 사이에 떠도는 이야기
+2) 세상에 떠도는 뜬 소문</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>卓上空論</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>탁상공론, 
+「탁자 위에서만 펼치는 헛된 논설」이란 뜻으로, 실현성이 없는 허황된 이론을 일컬음</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>甲論乙駁</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>갑론을박, 
+「갑이 논하면 을이 논박한다」
+ 서로 논란하고 반박함을 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>論功行賞</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>논공행상, 공이 있고 없음이나 크고 작음을 따져 거기에 알맞은 상을 줌</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>描虎類犬</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>묘호류견, 
+「호랑이를 그리려다 실패하여 개와 비슷하게 되었다」
+ 높은 뜻을 갖고 어떤 일을 성취하려다가 중도에 그쳐 다른 사람의 조소를 받는 것을 비유하는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>銘心不忘</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>명심불망, 마음에 새기어 오래오래 잊지 아니함</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>대답</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>오답가산점</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -453,11 +463,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>호질기의, 
+          <t>호질기의| 
 「병을 숨기고 의원에게 보이기를 꺼린다」
 「자신의 결점을 감추고 남의 충고를 듣지 않음」을 비유하는 말</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -467,11 +485,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>장두노미, 
+          <t>장두노미| 
 「머리는 감추었는데 꼬리는 드러나 있다」
 「진실을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미 속으로 감추면서 들통 날까봐 전전긍긍하는 태도를 빗대기도 함</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -481,11 +507,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>도행역시, 
+          <t>도행역시| 
 「차례를 거꾸로 시행한다」
  곧 도리에 순종하지 않고 일을 행하며 상도를 벗어나서 일을 억지로 함을 뜻</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -495,11 +529,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>파사현정, 
+          <t>파사현정| 
 「불교에서, 부처의 가르침에 어긋나는 사악한 도리를 깨뜨리고 바른 도리를 드러낸다」
  그릇된 생각을 버리고 올바른 도리를 행함을 비유해 이르는 말</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -509,12 +551,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">속수무책,
+          <t xml:space="preserve">속수무책|
 「손을 묶인 듯이 어찌 할 방책이 없어 꼼짝 못하게 된다」
  뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다
 </t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -524,7 +574,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이합집산, 헤어졌다가 모였다가 하는 일</t>
+          <t>이합집산| 헤어졌다가 모였다가 하는 일</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -536,7 +594,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
+          <t>격물치지| 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -548,11 +614,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">용사비등,
+          <t xml:space="preserve">용사비등|
 「용과 뱀이 하늘로 날아오르다」
  살아 움직이듯 매우 활기찬 글씨 </t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -562,11 +636,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>화사첨족, 
+          <t>화사첨족| 
 「뱀을 그리고 발을 더한다」
  하지 않아도 될 일을 하거나 필요 이상으로 쓸데 없는 일을 하여 도리어 실패함</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -576,8 +658,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>침소봉대,
+          <t>침소봉대|
 「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -589,12 +679,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>견마지성, 
+          <t>견마지성| 
 「개나 말의 정성」
  임금이나 나라에 바치는 정성, 남에게 
 「자기가 바치는 정성」을 아주 겸손하게 일컫는 말</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -604,9 +702,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">반포지효, 
+          <t>반포지효| 
 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성」
- 자식이 자라서 부모를 봉양함 </t>
+ 자식이 자라</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -618,11 +724,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>간어제초, 
+          <t>간어제초| 
 「제나라와 초나라 사이」
  약한 자가 강한 자들 사이에 끼여 괴로움을 받음을 이르는 말</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -632,7 +746,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>개세지재, 세상을 마음대로 다스릴 만한 뛰어난 재기 또는 그러한 재기를 가진 사람</t>
+          <t>개세지재| 세상을 마음대로 다스릴 만한 뛰어난 재기 또는 그러한 재기를 가진 사람</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -644,7 +766,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>붕우유신, 오륜의 하나 친구 사이의 도리는 믿음에 있음</t>
+          <t>붕우유신| 오륜의 하나 친구 사이의 도리는 믿음에 있음</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -656,7 +786,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>장유유서, 오륜의 하나 어른과 어린이 사이에는 순서와 질서가 있음</t>
+          <t>장유유서| 오륜의 하나 어른과 어린이 사이에는 순서와 질서가 있음</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -668,7 +806,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>군신유의, 오륜의 하나 임금과 신하 사이에 의리가 있어야 함</t>
+          <t>군신유의| 오륜의 하나 임금과 신하 사이에 의리가 있어야 함</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -680,11 +826,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>부부유별, 오륜의 하나 
+          <t>부부유별| 오륜의 하나 
 「남편과 아내는 분별이 있어야 한다」
  부부 사이에는 인륜상 각각 직분이 있어 서로 침범하지 못할 구별이 있음</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -694,7 +848,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>부자유친, 오륜의 하나 아버지와 아들 사이의 도는 친애에 있</t>
+          <t>부자유친| 오륜의 하나 아버지와 아들 사이의 도는 친애에 있</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -709,6 +871,14 @@
           <t>부귀공명</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -721,6 +891,14 @@
           <t>전력투구</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -733,6 +911,14 @@
           <t>토사구팽</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -745,6 +931,14 @@
           <t>권토중래</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -757,6 +951,14 @@
           <t>수불석권</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -769,6 +971,14 @@
           <t>아전인수</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -781,6 +991,14 @@
           <t>대증요법</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -790,11 +1008,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>화이부동, 
+          <t>화이부동| 
 「남과 사이 좋게 지내되 의를 굽혀 좇지는 아니한다」
  곧, 남과 화목하게 지내지만 자기의 중심과 원칙을 잃지 않음</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -804,11 +1030,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>일사불란, 
+          <t>일사불란| 
 「한 오라기의 실도 흐트러지지 않았다」
  질서나 체계 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -818,7 +1052,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>곡복사신, 밥 먹고 옷 입는 일</t>
+          <t>곡복사신| 밥 먹고 옷 입는 일</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -830,8 +1072,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>우이독경, 
+          <t>우이독경| 
 「쇠귀에 경 읽기」란 뜻으로, 우둔한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유하여 이르는 말</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -843,7 +1093,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>경국지사, 나랏일을 다스릴 만한 사람</t>
+          <t>경국지사| 나랏일을 다스릴 만한 사람</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -855,9 +1113,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한강투석, 「한강에 아무리 돌을 많이 집어 넣어도 메울 수 없다」
+          <t>한강투석| 「한강에 아무리 돌을 많이 집어 넣어도 메울 수 없다」
 1) 아무리 도와도 보람이 없는 것
-2) 아무리 투자를 하거나 애를 써도 보람이 없음을 이르는 말</t>
+2) 아무리 투자를 하거나 애를 써도 보람이 없음을 이르는</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -869,11 +1135,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>맥수지탄, 
+          <t>맥수지탄| 
 「나무가 고요하고자 하나 바람이 그치지 않는다」
  부모에게 효도를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -883,11 +1157,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>풍수지탄, 
+          <t>풍수지탄| 
 「나무가 고요하고자 하나 바람이 그치지 않는다」
  부모에게 효도를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -897,11 +1179,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>망양지탄, 「달아난 양을 찾다가 여러 갈래 길에 이르러 길을 잃었다」
+          <t>망양지탄| 「달아난 양을 찾다가 여러 갈래 길에 이르러 길을 잃었다」
 1) 학문의 길이 여러 갈래로 나뉘어져 있어 진리를 찾기 어려움
 2) 방침이 많아 할 바를 모르게 됨</t>
         </is>
       </c>
+      <c r="C36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -911,11 +1201,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>만시지탄, 
+          <t>만시지탄| 
 「때늦은 한탄」
 「시기가 늦어 기회를 놓친 것이 원통해서 탄식함」을 이르는 말</t>
         </is>
       </c>
+      <c r="C37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -925,11 +1223,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>비육지탄, 
+          <t>비육지탄| 
 1) 「넓적다리에 살이 붙음을 탄식한다」
 2) 자기의 뜻을 펴지 못하고 허송세월하는 것을 한탄하다 성공할 기회를 잃고 공연이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄한다</t>
         </is>
       </c>
+      <c r="C38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -939,11 +1245,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>절치부심, 
+          <t>절치부심| 
 「이를 갈고 마음을 썩이다」
  대단히 분하게 여기고 마음을 썩임</t>
         </is>
       </c>
+      <c r="C39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -953,7 +1267,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>사필귀정, 처음에는 시비곡직을 가리지 못하여 그릇되더라도 모든 일은 결국에 가서는 반드시 정리로 돌아감</t>
+          <t>사필귀정| 처음에는 시비곡직을 가리지 못하여 그릇되더라도 모든 일은 결국에 가서는 반드시 정리로 돌아감</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -965,7 +1287,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>풍목지비, )</t>
+          <t>풍목지비| )</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -977,7 +1307,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>벽사진경, 사귀를 쫓고 경사로운 일을 맞이함</t>
+          <t>벽사진경| 사귀를 쫓고 경사로운 일을 맞이함</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -989,7 +1327,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>견강부회, 이치에 맞지 않는 말을 억지로 끌어 붙여 자기 주장의 조건에 맞도록 함</t>
+          <t>견강부회| 이치에 맞지 않는 말을 억지로 끌어 붙여 자기 주장의 조건에 맞도록 함</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1347,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중히 함</t>
+          <t>은인자중| 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중히 함</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1013,12 +1367,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>오월동주, 
+          <t>오월동주| 
 1) 「오나라 사람과 월나라 사람이 한 배에 타고 있다」
 2) 어려운 상황에서는 원수라도 협력하게 됨 
 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
         </is>
       </c>
+      <c r="C45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1028,8 +1390,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>낭중지추, 
+          <t>낭중지추| 
 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1041,8 +1411,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>추처낭중, 
+          <t>추처낭중| 
 「주머니 속에 있는 송곳」이란 뜻으로, 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1054,11 +1432,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>방휼지쟁, 
+          <t>방휼지쟁| 
 「도요새가 조개와 다투다가 다 같이 어부에게 잡히고 말았다」
  제3자만 이롭게 하는 다툼을 이르는 말</t>
         </is>
       </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1068,12 +1454,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>양두구육, 
+          <t>양두구육| 
 1) 「양 머리를 걸어놓고 개고기를 판다」
 2) 겉은 훌륭해 보이나 속은 그렇지 못한 것 
 3) 겉과 속이 서로 다름</t>
         </is>
       </c>
+      <c r="C49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1083,11 +1477,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>면리장침, 
+          <t>면리장침| 
 「솜 속에 바늘을 감추어 꽂는다」
  겉으로는 부드러운 듯하나 속으로는 아주 흉악함을 이름</t>
         </is>
       </c>
+      <c r="C50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1097,11 +1499,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>후생가외, 
+          <t>후생가외| 
 「젊은 후학들을 두려워할 만하다」
  후진들이 선배들보다 젊고 기력이 좋아, 학문을 닦음에 따라 큰 인물이 될 수 있으므로 가히 두렵다는 말</t>
         </is>
       </c>
+      <c r="C51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1111,12 +1521,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">불문곡직, 
+          <t xml:space="preserve">불문곡직| 
 1) 「굽음과 곧음을 묻지 않는다」
 2) 옳고 그름을 가리지 않고 함부로 일을 처리함 
 3) 잘잘못을 묻지 않고 함부로 행함 </t>
         </is>
       </c>
+      <c r="C52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1126,12 +1544,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>도청도설, 
+          <t>도청도설| 
 1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」
 2) 거리에서 들은 것을 남에게 아는 체하며 말함 
 3) 깊이 생각 않고 예사로 듣고 말함</t>
         </is>
       </c>
+      <c r="C53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1141,7 +1567,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말</t>
+          <t>대마불사| 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1153,8 +1587,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>염화미소, 
+          <t>염화미소| 
 「꽃을 집어 들고 웃음을 띠다」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전하는 일을 이르는 말 불교에서 이심전심의 뜻으로 쓰이는 말</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1166,11 +1608,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>고진감래, 
+          <t>고진감래| 
 「쓴 것이 다하면 단 것이 온다」
  고생 끝에 낙이 온다라는 말</t>
         </is>
       </c>
+      <c r="C56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1180,11 +1630,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>목불식정, 
+          <t>목불식정| 
 「고무래를 보고도 그것이 고무래 정자인 줄 모른다」
  글자를 전혀 모름 또는 그러한 사람을 비유해 이르는 말 낫 놓고 기역자도 모른다 일자무식을 이르는 말</t>
         </is>
       </c>
+      <c r="C57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1197,6 +1655,14 @@
           <t>공공기업</t>
         </is>
       </c>
+      <c r="C58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1206,11 +1672,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>공도동망, 
+          <t>공도동망| 
 「넘어져도 같이 넘어지고 망하여도 같이 망한다」
  운명을 같이 하는 것</t>
         </is>
       </c>
+      <c r="C59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1220,11 +1694,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>언어도단, 
+          <t>언어도단| 
 「말할 길이 끊어졌다」
  곧, 너무나 엄청나거나 기가 막혀서, 말로써 나타낼 수가 없음</t>
         </is>
       </c>
+      <c r="C60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1234,11 +1716,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>언중유골, 
+          <t>언중유골| 
 「말속에 뼈가 있다」
  예사로운 표현 속에 만만치 않은 뜻이 들어 있음</t>
         </is>
       </c>
+      <c r="C61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1251,6 +1741,14 @@
           <t>회자정리</t>
         </is>
       </c>
+      <c r="C62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1260,7 +1758,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>조민유화, 국민의 화합과 나아가 인류의 화합을 지향한다,을 나타냄</t>
+          <t>조민유화| 국민의 화합과 나아가 인류의 화합을 지향한다,을 나타냄</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1275,6 +1781,14 @@
           <t>주마간산</t>
         </is>
       </c>
+      <c r="C64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1287,6 +1801,14 @@
           <t>묵묵부답</t>
         </is>
       </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1296,7 +1818,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>금석맹약, 쇠와 돌같이 굳게 맹세하여 맺은 약속</t>
+          <t>금석맹약| 쇠와 돌같이 굳게 맹세하여 맺은 약속</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1838,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>국수주의, 자기 나라의 고유 전통 문화만이 우수하다고 믿고 다른 나라의 문물을 지나치게 배척하는 태도나 입장</t>
+          <t>국수주의| 자기 나라의 고유 전통 문화만이 우수하다고 믿고 다른 나라의 문물을 지나치게 배척하는 태도나 입장</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1858,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>위정척사, 조선 시대 후기에, 정학, 정도로서의 주자학을 지키고, 사학, 사도로서의 천주교를 물리치려던 주장</t>
+          <t>위정척사| 조선 시대 후기에, 정학, 정도로서의 주자학을 지키고, 사학, 사도로서의 천주교를 물리치려던 주장</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1332,11 +1878,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>상분지도, 
+          <t>상분지도| 
 「똥도 핥을 놈」
  남에게 아첨하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말</t>
         </is>
       </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1346,11 +1900,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>귤화위지, 
+          <t>귤화위지| 
 「강남의 귤을 강북에 심으면 탱자가 된다」
  사람도 환경에 따라 기질이 변한다는 말</t>
         </is>
       </c>
+      <c r="C70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1360,11 +1922,19 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>금슬상화, 
+          <t>금슬상화| 
 「거문고와 비파 소리가 조화를 이룬다」
  부부 사이가 다정하고 화목함을 이르는 말</t>
         </is>
       </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1374,7 +1944,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>여필종부, 아내는 반드시 남편의 뜻을 좇아야 한다는 말</t>
+          <t>여필종부| 아내는 반드시 남편의 뜻을 좇아야 한다는 말</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1386,11 +1964,19 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>담소자약, 
+          <t>담소자약| 
 「태연하게 담소를 즐긴다」
  위험이나 곤란에 직면해 걱정과 근심이 있을 때라도 변함없이 평상시와 같은 태도를 가짐</t>
         </is>
       </c>
+      <c r="C73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1400,11 +1986,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>남부여대, 
+          <t>남부여대| 
 「남자는 짐을 따위에 지고, 여자는 짐을 머리에 인다」
  가난한 사람이나 재난을 당한 사람들이 살 곳을 찾아 이리저리 떠돌아다니는 것을 이르는 말</t>
         </is>
       </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1414,7 +2008,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>무릉도원, 이 세상을 떠난 별천지를 이르는 말</t>
+          <t>무릉도원| 이 세상을 떠난 별천지를 이르는 말</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1426,7 +2028,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>안분지족, 자기 분수에 만족하여 다른 데 마음을 두지 아니함</t>
+          <t>안분지족| 자기 분수에 만족하여 다른 데 마음을 두지 아니함</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1438,11 +2048,19 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>단표누항, 
+          <t>단표누항| 
 「도시락과 표주박과 누추한 거리」
  소박한 시골 생활을 비유해 이르는 말</t>
         </is>
       </c>
+      <c r="C77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1452,7 +2070,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>풍월주인, 맑은 바람과 밝은 달 등의 자연을 즐기는 사람을 이르는 말</t>
+          <t>풍월주인| 맑은 바람과 밝은 달 등의 자연을 즐기는 사람을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1464,7 +2090,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>고혈단신, 혈육이 없는 외로운 신세</t>
+          <t>고혈단신| 혈육이 없는 외로운 신세</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1476,7 +2110,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>마저작침, 아무리 어려운 일이라도 꾸준히 노력하면 이룰 수 있다,</t>
+          <t>마저작침| 아무리 어려운 일이라도 꾸준히 노력하면 이룰 수 있다,</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1488,7 +2130,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">마부작침, </t>
+          <t xml:space="preserve">마부작침| </t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1500,11 +2150,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>백척간두, 
+          <t>백척간두| 
 「백 자나 되는 높은 장대 위에 올라섰다」
  위태로움이 극도에 달함</t>
         </is>
       </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1514,12 +2172,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>전전반측, 
+          <t>전전반측| 
 1) 「이리 뒤척 저리 뒤척 한다」
 2) 걱정거리로 마음이 괴로워 잠을 이루지 못함을 이르는 말
 3) 원래는 「미인을 사모하여 잠을 이루지 못함」을 이르는 표현임</t>
         </is>
       </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1529,12 +2195,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>금의야행, 
+          <t>금의야행| 
 1) 「비단옷을 입고 밤길을 간다」
 2) 아무 보람없는 행동을 비유하여 이르는 말
 3)  입신출세하여 고향으로 돌아가지 않음을 이르는 말</t>
         </is>
       </c>
+      <c r="C84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1544,11 +2218,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>삼순구식, 
+          <t>삼순구식| 
 「삼순, 곧 한 달에 아홉 번 밥을 먹는다」
  집안이 가난하여 먹을 것이 없어 굶주린다는 말</t>
         </is>
       </c>
+      <c r="C85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1558,12 +2240,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>권불십년, 
+          <t>권불십년| 
 1) 「권세는 10년을 넘지 못한다」
 2) 권력은 오래가지 못하고 늘 변함
 3)  영화는 일시적이어서 계속되지 않음</t>
         </is>
       </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1573,12 +2263,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>세불십년, 
+          <t>세불십년| 
 1) 「권세는 10년을 넘지 못한다」
 2) 권력은 오래가지 못하고 늘 변함
 3)  영화는 일시적이어서 계속되지 않음</t>
         </is>
       </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1588,8 +2286,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>내우외환, 
+          <t>내우외환| 
 「내부에서 일어나는 근심과 외부로부터 받는 근심」이란 뜻으로, 나라 안팎의 여러 가지 어려운 사태를 이르는 말</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1604,6 +2310,14 @@
           <t>세계만방</t>
         </is>
       </c>
+      <c r="C89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1613,11 +2327,19 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>득롱망촉, 
+          <t>득롱망촉| 
 「농나라를 얻고 나니 촉나라를 갖고 싶다」
  인간의 욕심은 한이 없음을 비유해 이르는 말</t>
         </is>
       </c>
+      <c r="C90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1627,11 +2349,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>교각살우, 
+          <t>교각살우| 
 「쇠뿔을 바로 잡으려다 소를 죽인다」 
  결점이나 흠을 고치려다 수단이 지나쳐 도리어 일을 그르침</t>
         </is>
       </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1641,12 +2371,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>망양보뢰, 
+          <t>망양보뢰| 
 1) 「양을 잃고서 그 우리를 고친다」
 2) 실패한 후에 일을 대비함
 3) 이미 어떤 일을 실패한 뒤에 뉘우쳐도 소용이 없음</t>
         </is>
       </c>
+      <c r="C92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1656,7 +2394,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>득의양양, 바라던 일이 이루어져서 우쭐거리며 뽐냄</t>
+          <t>득의양양| 바라던 일이 이루어져서 우쭐거리며 뽐냄</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1668,7 +2414,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>일거양득, 한 가지의 일로 두 가지의 이익을 보는 것</t>
+          <t>일거양득| 한 가지의 일로 두 가지의 이익을 보는 것</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1680,11 +2434,19 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>종두득두, 
+          <t>종두득두| 
 「콩을 심어 콩을 얻는다」
  원인에 따라 결과가 생긴다는 말</t>
         </is>
       </c>
+      <c r="C95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1694,11 +2456,19 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>망촉지탄, 
+          <t>망촉지탄| 
 「촉 땅을 얻고 싶어 하는 탄식」
  인간의 욕심은 한이 없음을 비유해 이르는 말</t>
         </is>
       </c>
+      <c r="C96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1708,11 +2478,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>당랑지부, 
+          <t>당랑지부| 
 「사마귀가 넓적한 앞다리를 쳐드는 모습이 마치 도끼를 휘두르는 것 같다」
  자기 힘을 생각지 않고 강적 앞에서 분수없이 날뛰는 것에 비유해서 씀</t>
         </is>
       </c>
+      <c r="C97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1722,8 +2500,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>내자물거,
+          <t>내자물거|
 「오는 사람을 막지 말라」, 자유 의사에 맡기라는 말</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1735,11 +2521,19 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>교왕과직, 
+          <t>교왕과직| 
 「구부러진 것을 바로잡으려다가 너무 곧게 한다」
  잘못을 바로잡으려다 지나쳐 오히려 일을 그르침을 이름</t>
         </is>
       </c>
+      <c r="C99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1749,13 +2543,21 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>와각지쟁, 
+          <t>와각지쟁| 
 1) 「달팽이의 촉각 위에서 싸운다」
 으로
 2) 작은 나라끼리의 싸움
 3) 하찮은 일로 승강이하는 짓</t>
         </is>
       </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1765,11 +2567,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>각자무치, 
+          <t>각자무치| 
 「뿔이 있는 놈은 이가 없다」
  한 사람이 모든 복을 겸하지는 못함</t>
         </is>
       </c>
+      <c r="C101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1782,6 +2592,14 @@
           <t>살신성인</t>
         </is>
       </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1791,11 +2609,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>맹자정문, 
+          <t>맹자정문| 
 「맹인이 정문을 바로 찾아 들어간다」
 「어리석은 사람이 어쩌다 이치에 들어맞는 일을 함」의 비유</t>
         </is>
       </c>
+      <c r="C103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1805,11 +2631,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>포호빙하, 
+          <t>포호빙하| 
 「범을 맨손으로 두드려 잡고, 큰 강을 배 없이 걸어서 건넌다」
  용기는 있으나 무모하기 이를 데 없는 행위를 이르는 말</t>
         </is>
       </c>
+      <c r="C104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1819,11 +2653,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>상하탱석, 
+          <t>상하탱석| 
 「윗돌 빼서 아랫돌 괴고, 아랫돌 빼서 윗돌을 괸다」
 「몹시 꼬이는 일을 당하여 임시변통으로 이리저리 맞추어 나감」을 이르는 말</t>
         </is>
       </c>
+      <c r="C105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1833,12 +2675,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>망운지정, 
+          <t>망운지정| 
 1)「구름을 바라보며 그리워한다」
 2)타향에서 고향에 계신 부모를 생각함
 3)멀리 떠나온 자식이 어버이를 사모하여 그리는 정</t>
         </is>
       </c>
+      <c r="C106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1848,7 +2698,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>명론탁설, 이름난 논문과 탁월한 학설</t>
+          <t>명론탁설| 이름난 논문과 탁월한 학설</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1860,11 +2718,19 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>명재경각, 
+          <t>명재경각| 
 「목숨이 경각에 달렸다」
  숨이 곧 끊어질 지경에 이름 거의 죽게 됨</t>
         </is>
       </c>
+      <c r="C108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1874,11 +2740,19 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>즐풍목우, 
+          <t>즐풍목우| 
 「바람에 머리를 빗고, 비에 몸을 씻는다」
  긴 세월을 이리저리 떠돌며 갖은 고생을 다함을 이르는 말</t>
         </is>
       </c>
+      <c r="C109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1888,11 +2762,19 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>폐의파관, 
+          <t>폐의파관| 
 「해어진 옷과 부서진 갓」
  너절하고 구차한 차림새를 이르는 말</t>
         </is>
       </c>
+      <c r="C110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1902,8 +2784,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>폐포파립, 
+          <t>폐포파립| 
 「해진 옷과 부러진 갓」이란 뜻으로, 너절하고 구차한 차림새를 말함</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1915,12 +2805,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>경국지색, 
+          <t>경국지색| 
 1)「나라를 기울일 만한 여자」
 2)첫눈에 반할 만큼 매우 아름다운 여자
 3)나라를 위태롭게 한다는 말</t>
         </is>
       </c>
+      <c r="C112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1930,12 +2828,20 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>경중미인, 
+          <t>경중미인| 
 1)「거울 속의 미인」
 2)실속이 없는 일
 3)실속보다는 겉치레 뿐인 사람</t>
         </is>
       </c>
+      <c r="C113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1945,12 +2851,20 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>지록위마, 
+          <t>지록위마| 
 1)「사슴을 가리켜 말이라고 한다」
 2)사실이 아닌 것을 사실로 만들어 강압으로 인정하게 됨
 3)윗사람을 농락하여 권세를 마음대로 함</t>
         </is>
       </c>
+      <c r="C114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1960,7 +2874,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>지란지화, 좋은 친구와 사귀면 자연히 그 아름다운 덕에 감화됨을 이르는 말</t>
+          <t>지란지화| 좋은 친구와 사귀면 자연히 그 아름다운 덕에 감화됨을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1972,8 +2894,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>목불인견, 
+          <t>목불인견| 
 1) 차마 눈으로 볼 수 없을 정도로 딱하거나 참혹한 상황</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1985,12 +2915,20 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">법고창신, 
+          <t xml:space="preserve">법고창신| 
 「옛것을 본받아 새로운 것을 창조한다」
  옛것에 토대를 두되 그것을 변화시킬 줄 알고 새 것을 만들어 가되 근본을 잃지 않아야 한다
 </t>
         </is>
       </c>
+      <c r="C117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2000,7 +2938,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>물아일체, 바깥 사물과 나, 객관과 주관 또는 물질계와 정신계가 어울려 한 몸으로 이루어진 그것</t>
+          <t>물아일체| 바깥 사물과 나, 객관과 주관 또는 물질계와 정신계가 어울려 한 몸으로 이루어진 그것</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2958,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>창상세계, 변하고 변하는 세상</t>
+          <t>창상세계| 변하고 변하는 세상</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2024,11 +2978,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>혼정신성, 
+          <t>혼정신성| 
 「저녁에는 잠자리를 보아 드리고, 아침에는 문안을 드린다」
 「자식이 아침저녁으로 부모의 안부를 물어서 살핌」을 이르는 말</t>
         </is>
       </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2038,11 +3000,19 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>간담상조, 
+          <t>간담상조| 
 「간과 쓸개를 내놓고 서로에게 내보인다」
  서로 마음을 터놓고 친밀히 사귐</t>
         </is>
       </c>
+      <c r="C121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2052,12 +3022,20 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">마부위침, 
+          <t xml:space="preserve">마부위침| 
 「도끼를 갈아 바늘을 만든다」
  아무리 이루기 힘든 일도 끊임없는 노력과 끈기 있는 인내로 성공하고야 만다
 </t>
         </is>
       </c>
+      <c r="C122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2067,12 +3045,20 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>고장난명, 
+          <t>고장난명| 
 1)「외손뼉은 울릴 수 없다」
 2)혼자서는 어떤 일을 이룰 수 없다는 말
 3)상대 없이는 싸움이 일어나지 않음을 이르는 말</t>
         </is>
       </c>
+      <c r="C123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2082,12 +3068,20 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>단순호치, 
+          <t>단순호치| 
 1)「붉은 입술과 하얀 이」란 뜻으로,
 2)여자의 아름다운 얼굴을 이르는 말
 3)미인의 얼굴</t>
         </is>
       </c>
+      <c r="C124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2097,11 +3091,19 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>지란지교, 
+          <t>지란지교| 
 「지초와 난초 같은 향기로운 사귐」
 「벗 사이의 고상한 교제」를 이르는 말</t>
         </is>
       </c>
+      <c r="C125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2111,11 +3113,19 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>금란지계, 
+          <t>금란지계| 
 「쇠처럼 단단하고 난초 향기처럼 그윽한 사귐의 의리를 맺는다」
  사이 좋은 벗끼리 마음을 합치면 단단한 쇠도 자를 수 있고, 우정의 아름다움은 난의 향기와 같이 아주 친밀한 친구 사이를 이름</t>
         </is>
       </c>
+      <c r="C126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2125,11 +3135,19 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>문경지교, 
+          <t>문경지교| 
 「목을 벨 수 있는 벗」
  생사를 같이 할 수 있는 매우 소중한 벗</t>
         </is>
       </c>
+      <c r="C127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2139,7 +3157,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>전전불매, 누워서 이리저리 뒤척이며 잠을 이루지 못한다는 말</t>
+          <t>전전불매| 누워서 이리저리 뒤척이며 잠을 이루지 못한다는 말</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2151,11 +3177,19 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>금슬지락, 
+          <t>금슬지락| 
 「거문고와 비파의 조화로운 소리」
  부부 사이의 다정하고 화목한 즐거움</t>
         </is>
       </c>
+      <c r="C129" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2165,12 +3199,20 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>화조월석, 
+          <t>화조월석| 
 1)「꽃이 핀 아침과 달 밝은 저녁」이란 뜻으로,
 2)「경치가 가장 좋은 때」를 이르는 말
 3)음력 2월 보름과 8월 보름 밤 봄과 가을</t>
         </is>
       </c>
+      <c r="C130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2180,7 +3222,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>위편삼절, 공자가 책을 하도 많이 읽어서 그것을 엮어 놓은 끈이 세 번이나 끊어졌다</t>
+          <t>위편삼절| 공자가 책을 하도 많이 읽어서 그것을 엮어 놓은 끈이 세 번이나 끊어졌다</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2192,7 +3242,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>막무가내, 도무지 어찌할 수 없음</t>
+          <t>막무가내| 도무지 어찌할 수 없음</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2207,6 +3265,14 @@
           <t>삼고초려</t>
         </is>
       </c>
+      <c r="C133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2216,8 +3282,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">유유상종, 사물은 같은 무리끼리 따르고, 같은 사람은 서로 찾아 모인다
+          <t xml:space="preserve">유유상종| 사물은 같은 무리끼리 따르고, 같은 사람은 서로 찾아 모인다
 </t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2229,7 +3303,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>고육지책, 적을 속이는 수단으로서 제 몸 괴롭히는 것을 돌보지 않고 쓰는 계책</t>
+          <t>고육지책| 적을 속이는 수단으로서 제 몸 괴롭히는 것을 돌보지 않고 쓰는 계책</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2241,7 +3323,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>고립무원, 고립되어 도움을 받을 데가 없음</t>
+          <t>고립무원| 고립되어 도움을 받을 데가 없음</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2256,6 +3346,14 @@
           <t>박장대소</t>
         </is>
       </c>
+      <c r="C137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2265,11 +3363,19 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>간난신고, 
+          <t>간난신고| 
 「몹시 고되고 어렵고 맵고 쓰다」
  몹시 힘든 고생을 이르는 말</t>
         </is>
       </c>
+      <c r="C138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2282,6 +3388,14 @@
           <t>난공불락</t>
         </is>
       </c>
+      <c r="C139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2294,6 +3408,14 @@
           <t>난형난제</t>
         </is>
       </c>
+      <c r="C140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2303,11 +3425,19 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>백가쟁명, 
+          <t>백가쟁명| 
 1)여러 사람이 서로 자기 주장을 내세우는 일
 2)많은 학자들의 활발한 논쟁</t>
         </is>
       </c>
+      <c r="C141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2320,6 +3450,14 @@
           <t>새옹지마</t>
         </is>
       </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2332,6 +3470,14 @@
           <t>임기응변</t>
         </is>
       </c>
+      <c r="C143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2341,11 +3487,19 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>사생취의, 
+          <t>사생취의| 
 「목숨을 버리고 의리를 좇는다」
 「비록 목숨을 버릴지언정 옳은 일을 함」을 일컫는 말</t>
         </is>
       </c>
+      <c r="C144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2355,7 +3509,15 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>견리사의, 눈앞의 이익을 보면 의리를 먼저 생각함</t>
+          <t>견리사의| 눈앞의 이익을 보면 의리를 먼저 생각함</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2367,8 +3529,16 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">침소봉대,
+          <t xml:space="preserve">침소봉대|
 「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름 </t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2385,6 +3555,14 @@
  작은 노력이라도 끈기 있게 계속하면 큰 일을 이룰 수 있음</t>
         </is>
       </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2399,6 +3577,14 @@
 2)신중을 기하여 곰곰이 생각함</t>
         </is>
       </c>
+      <c r="C148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2413,6 +3599,14 @@
  자기 직책을 다하지 않음을 이르는 말</t>
         </is>
       </c>
+      <c r="C149" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2427,6 +3621,14 @@
  남의 세력을 빌어 위세를 부림</t>
         </is>
       </c>
+      <c r="C150" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2436,11 +3638,19 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>가담항설, 
+          <t>가담항설| 
 1) 길거리나 세상 사람들 사이에 떠도는 이야기
 2) 세상에 떠도는 뜬 소문</t>
         </is>
       </c>
+      <c r="C151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2450,8 +3660,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>탁상공론, 
+          <t>탁상공론| 
 「탁자 위에서만 펼치는 헛된 논설」이란 뜻으로, 실현성이 없는 허황된 이론을 일컬음</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2463,11 +3681,19 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>갑론을박, 
+          <t>갑론을박| 
 「갑이 논하면 을이 논박한다」
  서로 논란하고 반박함을 이르는 말</t>
         </is>
       </c>
+      <c r="C153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2477,7 +3703,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>논공행상, 공이 있고 없음이나 크고 작음을 따져 거기에 알맞은 상을 줌</t>
+          <t>논공행상| 공이 있고 없음이나 크고 작음을 따져 거기에 알맞은 상을 줌</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2489,11 +3723,19 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>묘호류견, 
+          <t>묘호류견| 
 「호랑이를 그리려다 실패하여 개와 비슷하게 되었다」
  높은 뜻을 갖고 어떤 일을 성취하려다가 중도에 그쳐 다른 사람의 조소를 받는 것을 비유하는 말</t>
         </is>
       </c>
+      <c r="C155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2503,7 +3745,37 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>명심불망, 마음에 새기어 오래오래 잊지 아니함</t>
+          <t>명심불망| 마음에 새기어 오래오래 잊지 아니함</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>反哺之孝</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">반포지효| 
+「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성」
+ 자식이 자라서 부모를 봉양함 </t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3779,6 +3779,53 @@
         </is>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>藏頭露尾</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>장두노미| 
+「머리는 감추었는데 꼬리는 드러나 있다」
+「진실을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>束手無策</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>속수무책|
+「손을 묶인 듯이 어찌 할</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>漢江投石</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>한강투석| 「한강에 아무리 돌을 많이 집어 넣어도 메울 수 없다」
+1) 아무리 도와도 보람이 없는 것
+2) 아무리 투자를 하거나 애를 써도 보람이 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3826,6 +3826,154 @@
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
     </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>龍蛇飛騰</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>용사비등|
+「용과 뱀이 하늘로 날아오르다」
+ 살아 움직이듯 매우 활기찬 글씨</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>針小棒大</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>침소봉대|
+「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>反哺之孝</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>반포지효| 
+「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성」
+ 자식이 자라서 부모를 봉양함</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>不問曲直</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>불문곡직| 
+1) 「굽음과 곧음을 묻지 않는다」
+2) 옳고 그름을 가리지 않고 함부로 일을 처리함 
+3) 잘잘못을 묻지 않고 함부로 행함</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>神出鬼沒</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>신출귀몰</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>立身揚名</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>입신양명</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>滿場一致</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>만장일치</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>知彼知己</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>지피지기</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>門前成市</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>문전성시</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>鍊磨長養</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>연마장양</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3974,6 +3974,959 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
     </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>龍蛇飛騰</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>용사비등|
+「용과 뱀이 하늘로 날아오르다」, 살아 움직이듯 매우</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>斷機之戒</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>단기지계|학문을 중도에서 그만두면 아무 쓸모없이 된다</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>斑衣之戱</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>반의지희|늙어서도 부모에게 효양함</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>陸績懷橘</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>육적회귤|귤 세 개를 가슴 속에 숨겨 어머니에게 드리려 했던 일</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>吾鼻三尺</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>오비삼척|내 코가 석자</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>敎外別傳</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>교외별전|선종에서| 부처의 가르침을 글에 의하지 않고 바로 마음에서 마음으로 전하여 진리를 깨닫게 하는 법</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>以熱治熱</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>이열치열|힘에는 힘으로, 강한 것에는 강한 것으로 상대함</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>流芳百世</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>유방백세|꽃다운 이름이 후세에 길이 전함</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>命在頃刻</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>명재경각|거의 죽게 되어 곧 숨이 끊어질 지경에 이름</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>人名在天</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>인명재천|목숨의 길고 짧음은 사람의 힘으로 어쩔 수 없음</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>南柯一夢</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>남가일몽|꿈과 같이 헛된 한때의 부귀영화</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>不撤晝夜</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>불철주야|어떤 일에 몰두하여 조금도 쉴 사이 없이 밤낮을 가리지 아니함</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>行雲流水</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>행운유수|떠나는 구름과 흐르는 물 자연스럽고 거리낌이 없음</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>康衢煙月</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>강구연월|번화한 거리에 달빛이 은은함 태평성대의 평화로운 풍경</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>淸風明月</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>청풍명월|맑은 바람과 밝은 달빛 자연의 아름다움</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>犬猿之間</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>견원지간|개와 원숭이의 사이처럼, 매우 사이가 나쁜 관계</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>見物生心</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>견물생심|물건을 보면 욕심이 생긴다,</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>見蚊拔劍</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>견문발검|작은 일에 지나치게 큰 대책을 세움 조그만 일에 화를 내는 소견이 좁은 사람</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>見危致命</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>견위치명|나라의 위급함을 보고 몸을 바침</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>近墨者黑</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>근묵자흑|나쁜 사람을 가까이하면 그 버릇에 물들기 쉽다</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>舐糠及米</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>지강급미|욕심이 점점 커짐</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>生口不網</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>생구불망|가난하지만 그럭저럭 먹고 살 수 있음</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>謙讓之辭</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>겸양지사|겸손의 말</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>遼東之豕</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>요동지시|남이 보기에는 하찮은 것을 대단히 귀한 것으로 생각하는 어리석은 태도</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>換骨奪胎</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>환골탈태|딴사람처럼 됨</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>犬兎之爭</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>견토지쟁|양자의 싸움에서 제3자가 이득을 얻음</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>一魚濁水</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>일어탁수|물고기 한 마리가 큰물을 흐림</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>附和雷同</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>부화뇌동|소신 없이 그저 남이 하는 대로 따라감</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>面從腹背</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>면종복배|겉으로는 순종하는 체하고 속으로는 딴마음을 먹음</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>口蜜腹劍</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>구밀복검|겉으로는 친절하나 마음속은 음흉함</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>笑裏藏刀</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>소리장도|웃음 속에 칼을 감춘다 말은 좋게 하나 마음속으로는 해칠 뜻을 가진 것</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>莫逆之友</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>막역지우|생사를 같이 할 수 있는 친밀한 벗</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>伏地不動</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>복지부동|주어진 일이나 업무를 처리하는 데 몸을 사림</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>下意上達</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>하의상달|아랫사람의 뜻을 윗사람에게 전달한다</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>途中下車</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>도중하차|시작한 일을 끝내지 않고 중간에서 그만둠</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>自繩自縛</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>자승자박|제 스스로 한 말과 행동으로 인해 처지가 곤란하게 된 경우</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>福輕乎羽</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>복경호우|마음 먹기에 따라 행복하게 된다</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>曠日彌久</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>광일미구|헛되이 세월을 보내며 일을 오래 끈다</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>家鷄野雉</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>가계야치|아내를 소박하고 첩을 좋아한다 좋은 필적을 버리고 나쁜 필적을 좋아한다</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>焦眉之急</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>초미지급|눈썹에 불이 붙었다, 매우 급함을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>四面楚歌</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>사면초가|도움을 받을 수 없는 외롭고 곤란한 지경</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>雪上加霜</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>설상가상|불행한 일이 잇따라 일어남</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>緣木求魚</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>연목구어|불가능하거나 허술한 방법</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>左顧右眄</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>좌고우면|무슨 일에 얼른 결정을 짓지 못함</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>暗中摸索</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>암중모색|어림짐작으로 사물을 알아내려 함</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>辭讓之心</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>사양지심|겸손이 남에게 사양하는 마음</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>惻隱之心</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>측은지심|다른 사람의 불행을 불쌍히 여기는 마음</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>五獸不動</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>오수부동|사회 조직이 서로 견제하는 여러 세력으로 이루어져 있음</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>八面不知</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>팔면부지|어느 면으로 보나 전혀 모르거나 또는 그런 사람</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>限死決斷</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>한사결단|어떤 일에 목숨을 걸고 결단을 내림</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>渴而穿井</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>갈이천정|목이 말라야 비로소 샘을 판다</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>曲學阿世</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>곡학아세|바른 길에서 벗어난 학문으로 세상 사람들에게 아첨함</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>大同小異</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>대동소이|조금씩 다르나 크게는 같다</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>唯一無二</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>유일무이|둘이 아니고 오직 하나뿐임</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>各樣各色</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>각양각색|각기 다른 여러 가지 모양과 빛깔</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>無窮無盡</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>무궁무진|끝이 없고 다함이 없음</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>靑出於藍</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>청출어람|제자나 후배가 스승이나 선배보다 나음</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>管鮑之交</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>관포지교|아주 돈독한 친구 관계</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>草綠同色</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>초록동색|같은 처지의 사람과 어울림</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>拈華示衆</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>염화시중|말로 통하지 않고 마음에서 마음으로 전함</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>姑息之計</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>고식지계|우선 당장 편한 것만을 택하는 꾀나 방법</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>優柔不斷</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>우유부단|어물어물 망설이기만 하고 결단성이 없음</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>雲泥之差</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>운니지차|차이가 매우 심함</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>阿鼻叫喚</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>아비규환|비참한 지경에 빠져 울부짖는 참상</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>怒氣登天</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>노기등천|매우 화난 상태</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>百難之中</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>백난지중|온갖 괴로움과 어려움을 겪는 가운데</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>烏飛梨落</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>오비이락|어떤 일이 공교롭게 함께 발생함</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>客反爲主</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>객반위주|손님이 오히려 주인인 체하다</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3792,8 +3792,14 @@
 「진실을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3807,8 +3813,14 @@
 「손을 묶인 듯이 어찌 할</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3823,8 +3835,14 @@
 2) 아무리 투자를 하거나 애를 써도 보람이 없음을 이르는 말</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3839,8 +3857,14 @@
  살아 움직이듯 매우 활기찬 글씨</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3854,8 +3878,14 @@
 「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3870,8 +3900,14 @@
  자식이 자라서 부모를 봉양함</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3887,8 +3923,14 @@
 3) 잘잘못을 묻지 않고 함부로 행함</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
+      <c r="C164" t="n">
+        <v>3</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3901,8 +3943,14 @@
           <t>신출귀몰</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3915,8 +3963,14 @@
           <t>입신양명</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3929,8 +3983,14 @@
           <t>만장일치</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
+      <c r="C167" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3943,8 +4003,14 @@
           <t>지피지기</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3957,8 +4023,14 @@
           <t>문전성시</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3971,8 +4043,14 @@
           <t>연마장양</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3986,8 +4064,14 @@
 「용과 뱀이 하늘로 날아오르다」, 살아 움직이듯 매우</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4000,8 +4084,14 @@
           <t>단기지계|학문을 중도에서 그만두면 아무 쓸모없이 된다</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
+      <c r="C172" t="n">
+        <v>3</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4014,8 +4104,14 @@
           <t>반의지희|늙어서도 부모에게 효양함</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
+      <c r="C173" t="n">
+        <v>2</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4028,8 +4124,14 @@
           <t>육적회귤|귤 세 개를 가슴 속에 숨겨 어머니에게 드리려 했던 일</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4042,8 +4144,14 @@
           <t>오비삼척|내 코가 석자</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4056,8 +4164,14 @@
           <t>교외별전|선종에서| 부처의 가르침을 글에 의하지 않고 바로 마음에서 마음으로 전하여 진리를 깨닫게 하는 법</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4070,8 +4184,14 @@
           <t>이열치열|힘에는 힘으로, 강한 것에는 강한 것으로 상대함</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4084,8 +4204,14 @@
           <t>유방백세|꽃다운 이름이 후세에 길이 전함</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4098,8 +4224,14 @@
           <t>명재경각|거의 죽게 되어 곧 숨이 끊어질 지경에 이름</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4112,8 +4244,14 @@
           <t>인명재천|목숨의 길고 짧음은 사람의 힘으로 어쩔 수 없음</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4126,8 +4264,14 @@
           <t>남가일몽|꿈과 같이 헛된 한때의 부귀영화</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4140,8 +4284,14 @@
           <t>불철주야|어떤 일에 몰두하여 조금도 쉴 사이 없이 밤낮을 가리지 아니함</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
+      <c r="C182" t="n">
+        <v>2</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4154,8 +4304,14 @@
           <t>행운유수|떠나는 구름과 흐르는 물 자연스럽고 거리낌이 없음</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4168,8 +4324,14 @@
           <t>강구연월|번화한 거리에 달빛이 은은함 태평성대의 평화로운 풍경</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4182,8 +4344,14 @@
           <t>청풍명월|맑은 바람과 밝은 달빛 자연의 아름다움</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4196,8 +4364,14 @@
           <t>견원지간|개와 원숭이의 사이처럼, 매우 사이가 나쁜 관계</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4210,8 +4384,14 @@
           <t>견물생심|물건을 보면 욕심이 생긴다,</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4224,8 +4404,14 @@
           <t>견문발검|작은 일에 지나치게 큰 대책을 세움 조그만 일에 화를 내는 소견이 좁은 사람</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4238,8 +4424,14 @@
           <t>견위치명|나라의 위급함을 보고 몸을 바침</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4252,8 +4444,14 @@
           <t>근묵자흑|나쁜 사람을 가까이하면 그 버릇에 물들기 쉽다</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+      <c r="C190" t="n">
+        <v>3</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4266,8 +4464,14 @@
           <t>지강급미|욕심이 점점 커짐</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4280,8 +4484,14 @@
           <t>생구불망|가난하지만 그럭저럭 먹고 살 수 있음</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
+      <c r="C192" t="n">
+        <v>2</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4294,8 +4504,14 @@
           <t>겸양지사|겸손의 말</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4308,8 +4524,14 @@
           <t>요동지시|남이 보기에는 하찮은 것을 대단히 귀한 것으로 생각하는 어리석은 태도</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4322,8 +4544,14 @@
           <t>환골탈태|딴사람처럼 됨</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4336,8 +4564,14 @@
           <t>견토지쟁|양자의 싸움에서 제3자가 이득을 얻음</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
+      <c r="C196" t="n">
+        <v>2</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4350,8 +4584,14 @@
           <t>일어탁수|물고기 한 마리가 큰물을 흐림</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>2</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4364,8 +4604,14 @@
           <t>부화뇌동|소신 없이 그저 남이 하는 대로 따라감</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4378,8 +4624,14 @@
           <t>면종복배|겉으로는 순종하는 체하고 속으로는 딴마음을 먹음</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4392,8 +4644,14 @@
           <t>구밀복검|겉으로는 친절하나 마음속은 음흉함</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4406,8 +4664,14 @@
           <t>소리장도|웃음 속에 칼을 감춘다 말은 좋게 하나 마음속으로는 해칠 뜻을 가진 것</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4420,8 +4684,14 @@
           <t>막역지우|생사를 같이 할 수 있는 친밀한 벗</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
+      <c r="C202" t="n">
+        <v>2</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4434,8 +4704,14 @@
           <t>복지부동|주어진 일이나 업무를 처리하는 데 몸을 사림</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
+      <c r="C203" t="n">
+        <v>2</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4448,8 +4724,14 @@
           <t>하의상달|아랫사람의 뜻을 윗사람에게 전달한다</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+      <c r="C204" t="n">
+        <v>2</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4462,8 +4744,14 @@
           <t>도중하차|시작한 일을 끝내지 않고 중간에서 그만둠</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4476,8 +4764,14 @@
           <t>자승자박|제 스스로 한 말과 행동으로 인해 처지가 곤란하게 된 경우</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
+      <c r="C206" t="n">
+        <v>2</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4490,8 +4784,14 @@
           <t>복경호우|마음 먹기에 따라 행복하게 된다</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4504,8 +4804,14 @@
           <t>광일미구|헛되이 세월을 보내며 일을 오래 끈다</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
+      <c r="C208" t="n">
+        <v>2</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4518,8 +4824,14 @@
           <t>가계야치|아내를 소박하고 첩을 좋아한다 좋은 필적을 버리고 나쁜 필적을 좋아한다</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4532,8 +4844,14 @@
           <t>초미지급|눈썹에 불이 붙었다, 매우 급함을 이르는 말</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
+      <c r="C210" t="n">
+        <v>2</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4546,8 +4864,14 @@
           <t>사면초가|도움을 받을 수 없는 외롭고 곤란한 지경</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4560,8 +4884,14 @@
           <t>설상가상|불행한 일이 잇따라 일어남</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4574,8 +4904,14 @@
           <t>연목구어|불가능하거나 허술한 방법</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4588,8 +4924,14 @@
           <t>좌고우면|무슨 일에 얼른 결정을 짓지 못함</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4602,8 +4944,14 @@
           <t>암중모색|어림짐작으로 사물을 알아내려 함</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
+      <c r="C215" t="n">
+        <v>2</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4616,8 +4964,14 @@
           <t>사양지심|겸손이 남에게 사양하는 마음</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
+      <c r="C216" t="n">
+        <v>2</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4630,8 +4984,14 @@
           <t>측은지심|다른 사람의 불행을 불쌍히 여기는 마음</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
+      <c r="C217" t="n">
+        <v>2</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4644,8 +5004,14 @@
           <t>오수부동|사회 조직이 서로 견제하는 여러 세력으로 이루어져 있음</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
+      <c r="C218" t="n">
+        <v>2</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4658,8 +5024,14 @@
           <t>팔면부지|어느 면으로 보나 전혀 모르거나 또는 그런 사람</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4672,8 +5044,14 @@
           <t>한사결단|어떤 일에 목숨을 걸고 결단을 내림</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -4686,8 +5064,14 @@
           <t>갈이천정|목이 말라야 비로소 샘을 판다</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -4700,8 +5084,14 @@
           <t>곡학아세|바른 길에서 벗어난 학문으로 세상 사람들에게 아첨함</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4714,8 +5104,14 @@
           <t>대동소이|조금씩 다르나 크게는 같다</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -4728,8 +5124,14 @@
           <t>유일무이|둘이 아니고 오직 하나뿐임</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
+      <c r="C224" t="n">
+        <v>2</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4742,8 +5144,14 @@
           <t>각양각색|각기 다른 여러 가지 모양과 빛깔</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4756,8 +5164,14 @@
           <t>무궁무진|끝이 없고 다함이 없음</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -4770,8 +5184,14 @@
           <t>청출어람|제자나 후배가 스승이나 선배보다 나음</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4784,8 +5204,14 @@
           <t>관포지교|아주 돈독한 친구 관계</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -4798,8 +5224,14 @@
           <t>초록동색|같은 처지의 사람과 어울림</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
+      <c r="C229" t="n">
+        <v>2</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -4812,8 +5244,14 @@
           <t>염화시중|말로 통하지 않고 마음에서 마음으로 전함</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
+      <c r="C230" t="n">
+        <v>2</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -4826,8 +5264,14 @@
           <t>고식지계|우선 당장 편한 것만을 택하는 꾀나 방법</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -4840,8 +5284,14 @@
           <t>우유부단|어물어물 망설이기만 하고 결단성이 없음</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -4854,8 +5304,14 @@
           <t>운니지차|차이가 매우 심함</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -4868,8 +5324,14 @@
           <t>아비규환|비참한 지경에 빠져 울부짖는 참상</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
+      <c r="C234" t="n">
+        <v>2</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -4882,8 +5344,14 @@
           <t>노기등천|매우 화난 상태</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -4896,8 +5364,14 @@
           <t>백난지중|온갖 괴로움과 어려움을 겪는 가운데</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
+      <c r="C236" t="n">
+        <v>2</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -4910,8 +5384,14 @@
           <t>오비이락|어떤 일이 공교롭게 함께 발생함</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -4924,8 +5404,14 @@
           <t>객반위주|손님이 오히려 주인인 체하다</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr"/>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어4글자.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="487">
   <si>
     <t>질문</t>
   </si>
@@ -1697,6 +1697,30 @@
   </si>
   <si>
     <t>천의무봉 | 성격이나 언동 등이 매우 자연스러워 조금도 꾸민 데가 없음</t>
+  </si>
+  <si>
+    <t>悠悠自適</t>
+  </si>
+  <si>
+    <t>유유자적 | 속세에 속박됨이 없이 자기가 하고 싶은 대로 마음 편히 지냄</t>
+  </si>
+  <si>
+    <t>戀戀不忘</t>
+  </si>
+  <si>
+    <t>연연불망 | 그리워서 잊지 못함</t>
+  </si>
+  <si>
+    <t>得意滿面</t>
+  </si>
+  <si>
+    <t>득의만면 | 뜻한 바를 이루어서 기쁜 표정이 얼굴에 가득 참</t>
+  </si>
+  <si>
+    <t>山紫水明</t>
+  </si>
+  <si>
+    <t>산자수명 | 산수가 아름다움</t>
   </si>
 </sst>
 </file>
@@ -2091,11 +2115,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A239" sqref="A239:A244"/>
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5485,6 +5509,38 @@
         <v>478</v>
       </c>
     </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
